--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17861\source\repos\6491-hw4\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C7A1AF-2676-4ECE-A4B8-65B457E7D977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="2700" yWindow="1905" windowWidth="31740" windowHeight="15570" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
@@ -151,19 +148,10 @@
     <t>bill/bond</t>
   </si>
   <si>
-    <t>usd \fi.bond</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>1.5 Mo</t>
   </si>
   <si>
     <t>bootstrap</t>
-  </si>
-  <si>
-    <t>use \fi.zero cupon bond</t>
   </si>
   <si>
     <t>use \fi.ucurve.bootstrap</t>
@@ -182,6 +170,15 @@
   </si>
   <si>
     <t>plot curve here using pwflate.spot, forward</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>zero bond</t>
+  </si>
+  <si>
+    <t>bond</t>
   </si>
 </sst>
 </file>
@@ -275,7 +272,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,6 +286,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -376,6 +376,2243 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bootstrap!$J$6:$J$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>3.715831656820115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7323037168694624E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7294240837115154E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.721079054557859E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6778519999290514E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.632691013270551E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6059207069266165E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5867990595380914E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5724578239966977E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5613035296867254E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5523800942387468E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4565988638108697E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4087082485969311E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4271966353096553E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4395222264514712E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4979007110321814E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5416845744677142E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5757386904731278E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6029819832774604E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6699769586277319E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.725806104752958E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7730461514743033E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8135376200925997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8690866617754754E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9176920732479914E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9605792010178588E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9987010923688518E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0328101530513194E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.06350830766554E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1278260592309116E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1862967424721592E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2396830184750371E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2886204381443416E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3336428642401031E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3752020267900343E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.413682732854788E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4494148170577723E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4826826195915853E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5137325686231439E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5427792951365377E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5700106012428444E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.59559152516089E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6196676888484632E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.6423680717538877E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6638073222756787E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6840876943908857E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7033006785000303E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7215283813728075E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7388446991019462E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7416517109592764E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.744325055585305E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.746874058600821E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.7493071978429044E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7516321975631173E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7538561103389727E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.7559853885286218E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7580259467937029E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7599832169663313E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.7618621963320534E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.7636674902324545E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.7654033497520704E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.767073705138871E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.7686821955113451E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.7702321953248202E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.7717268380021001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.7731690370766675E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.7745615051486646E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7759067709131367E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.777207194485459E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6910-4A59-8E24-EAFA4821760E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Bootstrap!$I$6:$I$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bootstrap!$K$6:$K$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>3.715831656820115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.814664017116199E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6683596176462913E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7404183748547974E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4520470666365488E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4520470666365488E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2650364029551147E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2650364029551147E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5011501821605513E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5011501821605513E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8481716185164432E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8481716185164432E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8481716185164432E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8481716185164432E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3399267121304493E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3399267121304493E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3399267121304493E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3399267121304493E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6910-4A59-8E24-EAFA4821760E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="190917167"/>
+        <c:axId val="190917647"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Bootstrap!$I$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>t</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Bootstrap!$I$6:$I$74</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="69"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.30000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.79999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.89999999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>10.5</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>11.5</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>16.5</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>17.5</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>18.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>19.5</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>21.5</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>22.5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>23.5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>24.5</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>26.5</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>27.5</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>28.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>29.5</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Bootstrap!$I$6:$I$74</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="69"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.30000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.79999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.89999999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>10.5</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>11.5</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>16.5</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>17.5</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>18.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>19.5</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>21.5</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>22.5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>23.5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>24.5</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>26.5</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>27.5</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>28.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>29.5</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6910-4A59-8E24-EAFA4821760E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190917167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190917647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190917647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190917167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9207E9CD-A2C6-77AD-1AE0-48457CA67C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -695,23 +2932,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E00C4-F6CC-4E64-A377-FDB90E30013C}">
-  <dimension ref="B2:P38"/>
+  <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
+02/20/2026,3.72,3.73,3.74,3.69,3.71,3.61,3.51,3.48,3.50,3.65,3.85,4.08,4.66,4.72
+02/19/2026,3.72,3.74,3.75,3.69,3.70,3.60,3.50,3.47,3.50,3.65,3.85,4.08,4.64,4.70
 02/18/2026,3.71,3.74,3.73,3.70,3.70,3.60,3.49,3.47,3.50,3.66,3.86,4.09,4.65,4.71
 02/17/2026,3.72,3.75,3.73,3.69,3.70,3.59,3.48,3.43,3.47,3.63,3.82,4.05,4.63,4.68
 02/13/2026,3.72,3.71,3.73,3.68,3.70,3.59,3.42,3.40,3.43,3.61,3.81,4.04,4.64,4.69
@@ -746,9 +2985,9 @@
 01/02/2026,3.72,3.71,3.66,3.65,3.62,3.58,3.47,3.47,3.55,3.74,3.95,4.19,4.81,4.86</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
+        <f t="array" ref="B6:P40">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
       </c>
       <c r="C6" t="str">
@@ -794,65 +3033,65 @@
         <v>"30 Yr"</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="str">
-        <v>02/18/2026</v>
+        <v>02/20/2026</v>
       </c>
       <c r="C7" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="G7" t="str">
         <v>3.71</v>
       </c>
-      <c r="D7" t="str">
-        <v>3.74</v>
-      </c>
-      <c r="E7" t="str">
-        <v>3.73</v>
-      </c>
-      <c r="F7" t="str">
-        <v>3.70</v>
-      </c>
-      <c r="G7" t="str">
-        <v>3.70</v>
-      </c>
       <c r="H7" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="I7" t="str">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="J7" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="K7" t="str">
         <v>3.50</v>
       </c>
       <c r="L7" t="str">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="M7" t="str">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="N7" t="str">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="O7" t="str">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
       <c r="P7" t="str">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="str">
-        <v>02/17/2026</v>
+        <v>02/19/2026</v>
       </c>
       <c r="C8" t="str">
         <v>3.72</v>
       </c>
       <c r="D8" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="E8" t="str">
         <v>3.75</v>
-      </c>
-      <c r="E8" t="str">
-        <v>3.73</v>
       </c>
       <c r="F8" t="str">
         <v>3.69</v>
@@ -861,133 +3100,133 @@
         <v>3.70</v>
       </c>
       <c r="H8" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I8" t="str">
-        <v>3.48</v>
+        <v>3.50</v>
       </c>
       <c r="J8" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="K8" t="str">
-        <v>3.47</v>
+        <v>3.50</v>
       </c>
       <c r="L8" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="str">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="N8" t="str">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="O8" t="str">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="P8" t="str">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="str">
-        <v>02/13/2026</v>
+        <v>02/18/2026</v>
       </c>
       <c r="C9" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D9" t="str">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="E9" t="str">
         <v>3.73</v>
       </c>
       <c r="F9" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="G9" t="str">
         <v>3.70</v>
       </c>
       <c r="H9" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I9" t="str">
-        <v>3.42</v>
+        <v>3.49</v>
       </c>
       <c r="J9" t="str">
-        <v>3.40</v>
+        <v>3.47</v>
       </c>
       <c r="K9" t="str">
-        <v>3.43</v>
+        <v>3.50</v>
       </c>
       <c r="L9" t="str">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="M9" t="str">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
       <c r="N9" t="str">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="O9" t="str">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="P9" t="str">
-        <v>4.69</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
-        <v>02/12/2026</v>
+        <v>02/17/2026</v>
       </c>
       <c r="C10" t="str">
         <v>3.72</v>
       </c>
       <c r="D10" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="E10" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F10" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="G10" t="str">
         <v>3.70</v>
       </c>
       <c r="H10" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I10" t="str">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="J10" t="str">
+        <v>3.43</v>
+      </c>
+      <c r="K10" t="str">
         <v>3.47</v>
       </c>
-      <c r="K10" t="str">
-        <v>3.49</v>
-      </c>
       <c r="L10" t="str">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="M10" t="str">
-        <v>3.87</v>
+        <v>3.82</v>
       </c>
       <c r="N10" t="str">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="O10" t="str">
+        <v>4.63</v>
+      </c>
+      <c r="P10" t="str">
         <v>4.68</v>
       </c>
-      <c r="P10" t="str">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
-        <v>02/11/2026</v>
+        <v>02/13/2026</v>
       </c>
       <c r="C11" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="D11" t="str">
         <v>3.71</v>
@@ -996,136 +3235,136 @@
         <v>3.73</v>
       </c>
       <c r="F11" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="G11" t="str">
         <v>3.70</v>
       </c>
       <c r="H11" t="str">
-        <v>3.60</v>
+        <v>3.59</v>
       </c>
       <c r="I11" t="str">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="J11" t="str">
-        <v>3.52</v>
+        <v>3.40</v>
       </c>
       <c r="K11" t="str">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="L11" t="str">
-        <v>3.75</v>
+        <v>3.61</v>
       </c>
       <c r="M11" t="str">
-        <v>3.96</v>
+        <v>3.81</v>
       </c>
       <c r="N11" t="str">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="O11" t="str">
-        <v>4.76</v>
+        <v>4.64</v>
       </c>
       <c r="P11" t="str">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
-        <v>02/10/2026</v>
+        <v>02/12/2026</v>
       </c>
       <c r="C12" t="str">
         <v>3.72</v>
       </c>
       <c r="D12" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E12" t="str">
         <v>3.74</v>
       </c>
       <c r="F12" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G12" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H12" t="str">
         <v>3.58</v>
       </c>
       <c r="I12" t="str">
-        <v>3.40</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="str">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
       <c r="K12" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="L12" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="M12" t="str">
-        <v>3.92</v>
+        <v>3.87</v>
       </c>
       <c r="N12" t="str">
-        <v>4.16</v>
+        <v>4.09</v>
       </c>
       <c r="O12" t="str">
-        <v>4.73</v>
+        <v>4.68</v>
       </c>
       <c r="P12" t="str">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
-        <v>02/09/2026</v>
+        <v>02/11/2026</v>
       </c>
       <c r="C13" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D13" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E13" t="str">
         <v>3.73</v>
       </c>
       <c r="F13" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G13" t="str">
         <v>3.70</v>
       </c>
       <c r="H13" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I13" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="J13" t="str">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="K13" t="str">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="str">
         <v>3.75</v>
       </c>
       <c r="M13" t="str">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="N13" t="str">
-        <v>4.22</v>
+        <v>4.18</v>
       </c>
       <c r="O13" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P13" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
-        <v>02/06/2026</v>
+        <v>02/10/2026</v>
       </c>
       <c r="C14" t="str">
         <v>3.72</v>
@@ -1137,78 +3376,78 @@
         <v>3.74</v>
       </c>
       <c r="F14" t="str">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="G14" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="H14" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I14" t="str">
+        <v>3.40</v>
+      </c>
+      <c r="J14" t="str">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="L14" t="str">
         <v>3.70</v>
       </c>
-      <c r="H14" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="I14" t="str">
-        <v>3.45</v>
-      </c>
-      <c r="J14" t="str">
-        <v>3.50</v>
-      </c>
-      <c r="K14" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="L14" t="str">
-        <v>3.76</v>
-      </c>
       <c r="M14" t="str">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="N14" t="str">
-        <v>4.22</v>
+        <v>4.16</v>
       </c>
       <c r="O14" t="str">
-        <v>4.80</v>
+        <v>4.73</v>
       </c>
       <c r="P14" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
-        <v>02/05/2026</v>
+        <v>02/09/2026</v>
       </c>
       <c r="C15" t="str">
         <v>3.72</v>
       </c>
       <c r="D15" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E15" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F15" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G15" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="H15" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I15" t="str">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="J15" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="K15" t="str">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L15" t="str">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="str">
         <v>3.97</v>
       </c>
       <c r="N15" t="str">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="O15" t="str">
         <v>4.79</v>
@@ -1217,9 +3456,9 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
-        <v>02/04/2026</v>
+        <v>02/06/2026</v>
       </c>
       <c r="C16" t="str">
         <v>3.72</v>
@@ -1231,89 +3470,89 @@
         <v>3.74</v>
       </c>
       <c r="F16" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="G16" t="str">
         <v>3.70</v>
       </c>
       <c r="H16" t="str">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="I16" t="str">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="K16" t="str">
         <v>3.57</v>
       </c>
-      <c r="K16" t="str">
-        <v>3.64</v>
-      </c>
       <c r="L16" t="str">
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="M16" t="str">
-        <v>4.05</v>
+        <v>3.98</v>
       </c>
       <c r="N16" t="str">
-        <v>4.29</v>
+        <v>4.22</v>
       </c>
       <c r="O16" t="str">
-        <v>4.86</v>
+        <v>4.80</v>
       </c>
       <c r="P16" t="str">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
-        <v>02/03/2026</v>
+        <v>02/05/2026</v>
       </c>
       <c r="C17" t="str">
         <v>3.72</v>
       </c>
       <c r="D17" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E17" t="str">
         <v>3.74</v>
       </c>
       <c r="F17" t="str">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="G17" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="H17" t="str">
-        <v>3.62</v>
+        <v>3.58</v>
       </c>
       <c r="I17" t="str">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="J17" t="str">
-        <v>3.57</v>
+        <v>3.47</v>
       </c>
       <c r="K17" t="str">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="str">
-        <v>3.83</v>
+        <v>3.74</v>
       </c>
       <c r="M17" t="str">
-        <v>4.04</v>
+        <v>3.97</v>
       </c>
       <c r="N17" t="str">
-        <v>4.28</v>
+        <v>4.21</v>
       </c>
       <c r="O17" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P17" t="str">
         <v>4.85</v>
       </c>
-      <c r="P17" t="str">
-        <v>4.90</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
-        <v>02/02/2026</v>
+        <v>02/04/2026</v>
       </c>
       <c r="C18" t="str">
         <v>3.72</v>
@@ -1352,174 +3591,174 @@
         <v>4.29</v>
       </c>
       <c r="O18" t="str">
-        <v>4.85</v>
+        <v>4.86</v>
       </c>
       <c r="P18" t="str">
-        <v>4.90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
-        <v>01/30/2026</v>
+        <v>02/03/2026</v>
       </c>
       <c r="C19" t="str">
         <v>3.72</v>
       </c>
       <c r="D19" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E19" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F19" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G19" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H19" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I19" t="str">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="J19" t="str">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="K19" t="str">
-        <v>3.60</v>
+        <v>3.64</v>
       </c>
       <c r="L19" t="str">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="M19" t="str">
-        <v>4.01</v>
+        <v>4.04</v>
       </c>
       <c r="N19" t="str">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="O19" t="str">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="P19" t="str">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
-        <v>01/29/2026</v>
+        <v>02/02/2026</v>
       </c>
       <c r="C20" t="str">
         <v>3.72</v>
       </c>
       <c r="D20" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E20" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F20" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G20" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H20" t="str">
         <v>3.62</v>
       </c>
       <c r="I20" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="J20" t="str">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="K20" t="str">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="L20" t="str">
-        <v>3.80</v>
+        <v>3.83</v>
       </c>
       <c r="M20" t="str">
+        <v>4.05</v>
+      </c>
+      <c r="N20" t="str">
+        <v>4.29</v>
+      </c>
+      <c r="O20" t="str">
+        <v>4.85</v>
+      </c>
+      <c r="P20" t="str">
+        <v>4.90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B21" t="str">
+        <v>01/30/2026</v>
+      </c>
+      <c r="C21" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D21" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E21" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="F21" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G21" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="H21" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="I21" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J21" t="str">
+        <v>3.52</v>
+      </c>
+      <c r="K21" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="L21" t="str">
+        <v>3.79</v>
+      </c>
+      <c r="M21" t="str">
         <v>4.01</v>
-      </c>
-      <c r="N20" t="str">
-        <v>4.24</v>
-      </c>
-      <c r="O20" t="str">
-        <v>4.80</v>
-      </c>
-      <c r="P20" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" t="str">
-        <v>01/28/2026</v>
-      </c>
-      <c r="C21" t="str">
-        <v>3.76</v>
-      </c>
-      <c r="D21" t="str">
-        <v>3.72</v>
-      </c>
-      <c r="E21" t="str">
-        <v>3.71</v>
-      </c>
-      <c r="F21" t="str">
-        <v>3.68</v>
-      </c>
-      <c r="G21" t="str">
-        <v>3.70</v>
-      </c>
-      <c r="H21" t="str">
-        <v>3.63</v>
-      </c>
-      <c r="I21" t="str">
-        <v>3.52</v>
-      </c>
-      <c r="J21" t="str">
-        <v>3.56</v>
-      </c>
-      <c r="K21" t="str">
-        <v>3.66</v>
-      </c>
-      <c r="L21" t="str">
-        <v>3.83</v>
-      </c>
-      <c r="M21" t="str">
-        <v>4.05</v>
       </c>
       <c r="N21" t="str">
         <v>4.26</v>
       </c>
       <c r="O21" t="str">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="P21" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
-        <v>01/27/2026</v>
+        <v>01/29/2026</v>
       </c>
       <c r="C22" t="str">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="D22" t="str">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="E22" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="F22" t="str">
         <v>3.67</v>
       </c>
       <c r="G22" t="str">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="H22" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I22" t="str">
         <v>3.50</v>
@@ -1528,45 +3767,45 @@
         <v>3.53</v>
       </c>
       <c r="K22" t="str">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="L22" t="str">
-        <v>3.81</v>
+        <v>3.80</v>
       </c>
       <c r="M22" t="str">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
       <c r="N22" t="str">
         <v>4.24</v>
       </c>
       <c r="O22" t="str">
-        <v>4.79</v>
+        <v>4.80</v>
       </c>
       <c r="P22" t="str">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
-        <v>01/26/2026</v>
+        <v>01/28/2026</v>
       </c>
       <c r="C23" t="str">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="D23" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="E23" t="str">
         <v>3.71</v>
       </c>
-      <c r="E23" t="str">
+      <c r="F23" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G23" t="str">
         <v>3.70</v>
       </c>
-      <c r="F23" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G23" t="str">
-        <v>3.67</v>
-      </c>
       <c r="H23" t="str">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="I23" t="str">
         <v>3.52</v>
@@ -1578,54 +3817,54 @@
         <v>3.66</v>
       </c>
       <c r="L23" t="str">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="M23" t="str">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="N23" t="str">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="O23" t="str">
-        <v>4.75</v>
+        <v>4.81</v>
       </c>
       <c r="P23" t="str">
-        <v>4.80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
-        <v>01/23/2026</v>
+        <v>01/27/2026</v>
       </c>
       <c r="C24" t="str">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="D24" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E24" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="F24" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="G24" t="str">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="H24" t="str">
         <v>3.61</v>
       </c>
       <c r="I24" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J24" t="str">
         <v>3.53</v>
       </c>
-      <c r="J24" t="str">
-        <v>3.60</v>
-      </c>
       <c r="K24" t="str">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="str">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="M24" t="str">
         <v>4.03</v>
@@ -1634,71 +3873,71 @@
         <v>4.24</v>
       </c>
       <c r="O24" t="str">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="P24" t="str">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
-        <v>01/22/2026</v>
+        <v>01/26/2026</v>
       </c>
       <c r="C25" t="str">
-        <v>3.79</v>
+        <v>3.77</v>
       </c>
       <c r="D25" t="str">
         <v>3.71</v>
       </c>
       <c r="E25" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="F25" t="str">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="G25" t="str">
         <v>3.67</v>
       </c>
       <c r="H25" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I25" t="str">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="J25" t="str">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="K25" t="str">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="L25" t="str">
-        <v>3.85</v>
+        <v>3.82</v>
       </c>
       <c r="M25" t="str">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="N25" t="str">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="O25" t="str">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="P25" t="str">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
-        <v>01/21/2026</v>
+        <v>01/23/2026</v>
       </c>
       <c r="C26" t="str">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="D26" t="str">
         <v>3.71</v>
       </c>
       <c r="E26" t="str">
-        <v>3.70</v>
+        <v>3.72</v>
       </c>
       <c r="F26" t="str">
         <v>3.70</v>
@@ -1707,7 +3946,7 @@
         <v>3.67</v>
       </c>
       <c r="H26" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I26" t="str">
         <v>3.53</v>
@@ -1716,42 +3955,42 @@
         <v>3.60</v>
       </c>
       <c r="K26" t="str">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="L26" t="str">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="M26" t="str">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="N26" t="str">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="O26" t="str">
+        <v>4.78</v>
+      </c>
+      <c r="P26" t="str">
         <v>4.82</v>
       </c>
-      <c r="P26" t="str">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
-        <v>01/20/2026</v>
+        <v>01/22/2026</v>
       </c>
       <c r="C27" t="str">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="D27" t="str">
         <v>3.71</v>
       </c>
       <c r="E27" t="str">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="F27" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="G27" t="str">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="H27" t="str">
         <v>3.61</v>
@@ -1760,292 +3999,292 @@
         <v>3.53</v>
       </c>
       <c r="J27" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="K27" t="str">
         <v>3.68</v>
       </c>
       <c r="L27" t="str">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="M27" t="str">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="N27" t="str">
-        <v>4.30</v>
+        <v>4.26</v>
       </c>
       <c r="O27" t="str">
-        <v>4.87</v>
+        <v>4.79</v>
       </c>
       <c r="P27" t="str">
-        <v>4.91</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
-        <v>01/16/2026</v>
+        <v>01/21/2026</v>
       </c>
       <c r="C28" t="str">
         <v>3.75</v>
       </c>
       <c r="D28" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E28" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="F28" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G28" t="str">
         <v>3.67</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="I28" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J28" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K28" t="str">
         <v>3.66</v>
       </c>
-      <c r="H28" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I28" t="str">
-        <v>3.55</v>
-      </c>
-      <c r="J28" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="K28" t="str">
-        <v>3.67</v>
-      </c>
       <c r="L28" t="str">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="M28" t="str">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="N28" t="str">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="O28" t="str">
-        <v>4.79</v>
+        <v>4.82</v>
       </c>
       <c r="P28" t="str">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
-        <v>01/15/2026</v>
+        <v>01/20/2026</v>
       </c>
       <c r="C29" t="str">
         <v>3.75</v>
       </c>
       <c r="D29" t="str">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="E29" t="str">
         <v>3.69</v>
       </c>
       <c r="F29" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G29" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="H29" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="I29" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J29" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K29" t="str">
         <v>3.68</v>
       </c>
-      <c r="G29" t="str">
-        <v>3.66</v>
-      </c>
-      <c r="H29" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I29" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="J29" t="str">
-        <v>3.56</v>
-      </c>
-      <c r="K29" t="str">
-        <v>3.62</v>
-      </c>
       <c r="L29" t="str">
-        <v>3.77</v>
+        <v>3.86</v>
       </c>
       <c r="M29" t="str">
-        <v>3.96</v>
+        <v>4.08</v>
       </c>
       <c r="N29" t="str">
-        <v>4.17</v>
+        <v>4.30</v>
       </c>
       <c r="O29" t="str">
-        <v>4.74</v>
+        <v>4.87</v>
       </c>
       <c r="P29" t="str">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
-        <v>01/14/2026</v>
+        <v>01/16/2026</v>
       </c>
       <c r="C30" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="D30" t="str">
         <v>3.72</v>
       </c>
-      <c r="D30" t="str">
-        <v>3.71</v>
-      </c>
       <c r="E30" t="str">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="F30" t="str">
         <v>3.67</v>
       </c>
       <c r="G30" t="str">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="H30" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="I30" t="str">
-        <v>3.50</v>
+        <v>3.55</v>
       </c>
       <c r="J30" t="str">
-        <v>3.51</v>
+        <v>3.59</v>
       </c>
       <c r="K30" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="L30" t="str">
+        <v>3.82</v>
+      </c>
+      <c r="M30" t="str">
+        <v>4.02</v>
+      </c>
+      <c r="N30" t="str">
+        <v>4.24</v>
+      </c>
+      <c r="O30" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P30" t="str">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" t="str">
+        <v>01/15/2026</v>
+      </c>
+      <c r="C31" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="D31" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E31" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="F31" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G31" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="H31" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="I31" t="str">
+        <v>3.54</v>
+      </c>
+      <c r="J31" t="str">
         <v>3.56</v>
       </c>
-      <c r="L30" t="str">
+      <c r="K31" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="L31" t="str">
+        <v>3.77</v>
+      </c>
+      <c r="M31" t="str">
+        <v>3.96</v>
+      </c>
+      <c r="N31" t="str">
+        <v>4.17</v>
+      </c>
+      <c r="O31" t="str">
+        <v>4.74</v>
+      </c>
+      <c r="P31" t="str">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B32" t="str">
+        <v>01/14/2026</v>
+      </c>
+      <c r="C32" t="str">
         <v>3.72</v>
       </c>
-      <c r="M30" t="str">
-        <v>3.92</v>
-      </c>
-      <c r="N30" t="str">
-        <v>4.15</v>
-      </c>
-      <c r="O30" t="str">
-        <v>4.73</v>
-      </c>
-      <c r="P30" t="str">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" t="str">
-        <v>01/13/2026</v>
-      </c>
-      <c r="C31" t="str">
-        <v>3.72</v>
-      </c>
-      <c r="D31" t="str">
-        <v>3.72</v>
-      </c>
-      <c r="E31" t="str">
+      <c r="D32" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="E32" t="str">
         <v>3.66</v>
-      </c>
-      <c r="F31" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G31" t="str">
-        <v>3.63</v>
-      </c>
-      <c r="H31" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="I31" t="str">
-        <v>3.51</v>
-      </c>
-      <c r="J31" t="str">
-        <v>3.53</v>
-      </c>
-      <c r="K31" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="L31" t="str">
-        <v>3.75</v>
-      </c>
-      <c r="M31" t="str">
-        <v>3.95</v>
-      </c>
-      <c r="N31" t="str">
-        <v>4.18</v>
-      </c>
-      <c r="O31" t="str">
-        <v>4.77</v>
-      </c>
-      <c r="P31" t="str">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="str">
-        <v>01/12/2026</v>
-      </c>
-      <c r="C32" t="str">
-        <v>3.71</v>
-      </c>
-      <c r="D32" t="str">
-        <v>3.68</v>
-      </c>
-      <c r="E32" t="str">
-        <v>3.64</v>
       </c>
       <c r="F32" t="str">
         <v>3.67</v>
       </c>
       <c r="G32" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="str">
         <v>3.58</v>
       </c>
       <c r="I32" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J32" t="str">
+        <v>3.51</v>
+      </c>
+      <c r="K32" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="L32" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="M32" t="str">
+        <v>3.92</v>
+      </c>
+      <c r="N32" t="str">
+        <v>4.15</v>
+      </c>
+      <c r="O32" t="str">
+        <v>4.73</v>
+      </c>
+      <c r="P32" t="str">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B33" t="str">
+        <v>01/13/2026</v>
+      </c>
+      <c r="C33" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D33" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="E33" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F33" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G33" t="str">
+        <v>3.63</v>
+      </c>
+      <c r="H33" t="str">
+        <v>3.59</v>
+      </c>
+      <c r="I33" t="str">
+        <v>3.51</v>
+      </c>
+      <c r="J33" t="str">
         <v>3.53</v>
       </c>
-      <c r="J32" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="K32" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="L32" t="str">
-        <v>3.77</v>
-      </c>
-      <c r="M32" t="str">
-        <v>3.97</v>
-      </c>
-      <c r="N32" t="str">
-        <v>4.19</v>
-      </c>
-      <c r="O32" t="str">
-        <v>4.78</v>
-      </c>
-      <c r="P32" t="str">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" t="str">
-        <v>01/09/2026</v>
-      </c>
-      <c r="C33" t="str">
-        <v>3.70</v>
-      </c>
-      <c r="D33" t="str">
-        <v>3.68</v>
-      </c>
-      <c r="E33" t="str">
-        <v>3.63</v>
-      </c>
-      <c r="F33" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="G33" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="H33" t="str">
+      <c r="K33" t="str">
         <v>3.57</v>
-      </c>
-      <c r="I33" t="str">
-        <v>3.52</v>
-      </c>
-      <c r="J33" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="K33" t="str">
-        <v>3.59</v>
       </c>
       <c r="L33" t="str">
         <v>3.75</v>
@@ -2057,98 +4296,98 @@
         <v>4.18</v>
       </c>
       <c r="O33" t="str">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="P33" t="str">
-        <v>4.82</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" t="str">
-        <v>01/08/2026</v>
+        <v>01/12/2026</v>
       </c>
       <c r="C34" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="D34" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E34" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F34" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G34" t="str">
         <v>3.63</v>
       </c>
-      <c r="F34" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="G34" t="str">
-        <v>3.60</v>
-      </c>
       <c r="H34" t="str">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="I34" t="str">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="J34" t="str">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="K34" t="str">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="L34" t="str">
-        <v>3.74</v>
+        <v>3.77</v>
       </c>
       <c r="M34" t="str">
-        <v>3.95</v>
+        <v>3.97</v>
       </c>
       <c r="N34" t="str">
         <v>4.19</v>
       </c>
       <c r="O34" t="str">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="P34" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.83</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B35" t="str">
-        <v>01/07/2026</v>
+        <v>01/09/2026</v>
       </c>
       <c r="C35" t="str">
         <v>3.70</v>
       </c>
       <c r="D35" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E35" t="str">
-        <v>3.60</v>
+        <v>3.63</v>
       </c>
       <c r="F35" t="str">
         <v>3.62</v>
       </c>
       <c r="G35" t="str">
-        <v>3.60</v>
+        <v>3.62</v>
       </c>
       <c r="H35" t="str">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="I35" t="str">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="J35" t="str">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="K35" t="str">
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="L35" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="str">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="N35" t="str">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="O35" t="str">
         <v>4.76</v>
@@ -2157,24 +4396,24 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B36" t="str">
-        <v>01/06/2026</v>
+        <v>01/08/2026</v>
       </c>
       <c r="C36" t="str">
         <v>3.70</v>
       </c>
       <c r="D36" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="E36" t="str">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="F36" t="str">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="G36" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="H36" t="str">
         <v>3.56</v>
@@ -2183,118 +4422,212 @@
         <v>3.48</v>
       </c>
       <c r="J36" t="str">
+        <v>3.49</v>
+      </c>
+      <c r="K36" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="L36" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="M36" t="str">
+        <v>3.95</v>
+      </c>
+      <c r="N36" t="str">
+        <v>4.19</v>
+      </c>
+      <c r="O36" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P36" t="str">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B37" t="str">
+        <v>01/07/2026</v>
+      </c>
+      <c r="C37" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="D37" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="E37" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="F37" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="G37" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="H37" t="str">
+        <v>3.56</v>
+      </c>
+      <c r="I37" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J37" t="str">
         <v>3.47</v>
-      </c>
-      <c r="K36" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="L36" t="str">
-        <v>3.72</v>
-      </c>
-      <c r="M36" t="str">
-        <v>3.93</v>
-      </c>
-      <c r="N36" t="str">
-        <v>4.18</v>
-      </c>
-      <c r="O36" t="str">
-        <v>4.80</v>
-      </c>
-      <c r="P36" t="str">
-        <v>4.86</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" t="str">
-        <v>01/05/2026</v>
-      </c>
-      <c r="C37" t="str">
-        <v>3.71</v>
-      </c>
-      <c r="D37" t="str">
-        <v>3.68</v>
-      </c>
-      <c r="E37" t="str">
-        <v>3.64</v>
-      </c>
-      <c r="F37" t="str">
-        <v>3.64</v>
-      </c>
-      <c r="G37" t="str">
-        <v>3.61</v>
-      </c>
-      <c r="H37" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="I37" t="str">
-        <v>3.47</v>
-      </c>
-      <c r="J37" t="str">
-        <v>3.46</v>
       </c>
       <c r="K37" t="str">
         <v>3.53</v>
       </c>
       <c r="L37" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="M37" t="str">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
       <c r="N37" t="str">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O37" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P37" t="str">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B38" t="str">
-        <v>01/02/2026</v>
+        <v>01/06/2026</v>
       </c>
       <c r="C38" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="D38" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="E38" t="str">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="F38" t="str">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="G38" t="str">
-        <v>3.62</v>
+        <v>3.58</v>
       </c>
       <c r="H38" t="str">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="I38" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="J38" t="str">
         <v>3.47</v>
       </c>
       <c r="K38" t="str">
+        <v>3.54</v>
+      </c>
+      <c r="L38" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="M38" t="str">
+        <v>3.93</v>
+      </c>
+      <c r="N38" t="str">
+        <v>4.18</v>
+      </c>
+      <c r="O38" t="str">
+        <v>4.80</v>
+      </c>
+      <c r="P38" t="str">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="C39" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="D39" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="E39" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F39" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="G39" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="H39" t="str">
+        <v>3.57</v>
+      </c>
+      <c r="I39" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J39" t="str">
+        <v>3.46</v>
+      </c>
+      <c r="K39" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="L39" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="M39" t="str">
+        <v>3.92</v>
+      </c>
+      <c r="N39" t="str">
+        <v>4.17</v>
+      </c>
+      <c r="O39" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P39" t="str">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <v>01/02/2026</v>
+      </c>
+      <c r="C40" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D40" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="E40" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="G40" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="H40" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I40" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J40" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="K40" t="str">
         <v>3.55</v>
       </c>
-      <c r="L38" t="str">
+      <c r="L40" t="str">
         <v>3.74</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M40" t="str">
         <v>3.95</v>
       </c>
-      <c r="N38" t="str">
+      <c r="N40" t="str">
         <v>4.19</v>
       </c>
-      <c r="O38" t="str">
+      <c r="O40" t="str">
         <v>4.81</v>
       </c>
-      <c r="P38" t="str">
+      <c r="P40" t="str">
         <v>4.86</v>
       </c>
     </row>
@@ -2308,21 +4641,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <f ca="1">RAND()</f>
+        <v>0.95998204769392892</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:D4" ca="1" si="0">RAND()</f>
+        <v>0.65991034029764961</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63037191725284969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">_xll.\FI.INSTRUMENT(B3:D3,B4:D4)</f>
+        <v>2281519112704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" cm="1">
+        <f t="array" aca="1" ref="B6:D7" ca="1">_xll.FI.INSTRUMENT(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f ca="1"/>
+        <v>0.95998204769392892</v>
+      </c>
+      <c r="C7">
+        <f ca="1"/>
+        <v>0.65991034029764961</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>0.63037191725284969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f ca="1">RAND()</f>
+        <v>0.66109558419411207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" cm="1">
+        <f t="array" aca="1" ref="B10" ca="1">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B8,B9)</f>
+        <v>2281519055104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" cm="1">
+        <f t="array" aca="1" ref="B11:B12" ca="1">_xll.FI.INSTRUMENT(B10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f ca="1"/>
+        <v>0.66109558419411207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8" cm="1">
+        <f t="array" ref="B13">_xll.\FI.INSTRUMENT.BOND(2,0.05,1)</f>
+        <v>2282960523936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" cm="1">
+        <f t="array" ref="B14:C15">_xll.FI.INSTRUMENT(B13)</f>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>0.05</v>
+      </c>
+      <c r="C15">
+        <v>1.05</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2331,17 +4784,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f ca="1">RAND()</f>
+        <v>0.46700677998700246</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:E4" ca="1" si="0">RAND()</f>
+        <v>0.12099806293934079</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46151735185888776</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98401714468065815</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" cm="1">
+        <f t="array" aca="1" ref="B5" ca="1">_xll.\FI.CURVE.PWFLAT(B3:E3,B4:E4)</f>
+        <v>2281519053376</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" cm="1">
+        <f t="array" aca="1" ref="B6:E7" ca="1">_xll.FI.CURVE.PWFLAT(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f ca="1"/>
+        <v>0.46700677998700246</v>
+      </c>
+      <c r="C7">
+        <f ca="1"/>
+        <v>0.12099806293934079</v>
+      </c>
+      <c r="D7">
+        <f ca="1"/>
+        <v>0.46151735185888776</v>
+      </c>
+      <c r="E7">
+        <f ca="1"/>
+        <v>0.98401714468065815</v>
       </c>
     </row>
   </sheetData>
@@ -2351,13 +4881,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
-  <dimension ref="B2:L74"/>
+  <dimension ref="B2:AA74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="7" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.8984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2371,13 +4907,17 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="J2" s="8" cm="1">
+        <f t="array" ref="J2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(F3:F16,E3:E16)</f>
+        <v>2281519057984</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2389,16 +4929,18 @@
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="E3">
-        <f>1-D3*C3/360</f>
-        <v>0.99999141203703701</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <f>1-D3*C3</f>
+        <v>0.99690833333333329</v>
+      </c>
+      <c r="F3" s="8" cm="1">
+        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3)</f>
+        <v>2281519118032</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <f>1.5/12</f>
@@ -2408,17 +4950,61 @@
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
-        <v>0.99998701388888889</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
+        <f t="shared" ref="E4:E9" si="0">1-D4*C4</f>
+        <v>0.99532500000000002</v>
+      </c>
+      <c r="F4" s="8" cm="1">
+        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4)</f>
+        <v>2283180552464</v>
       </c>
       <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" cm="1">
+        <f t="array" ref="N4:AA5">_xll.FI.CURVE.PWFLAT(J2)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="O4">
+        <v>0.125</v>
+      </c>
+      <c r="P4">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q4">
+        <v>0.25</v>
+      </c>
+      <c r="R4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S4">
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>7</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>20</v>
+      </c>
+      <c r="AA4">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2431,22 +5017,65 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99998273148148153</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
+        <v>0.99378333333333335</v>
+      </c>
+      <c r="F5" s="8" cm="1">
+        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5)</f>
+        <v>2283070603328</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+      <c r="N5">
+        <v>3.715831656820115E-2</v>
+      </c>
+      <c r="O5">
+        <v>3.814664017116199E-2</v>
+      </c>
+      <c r="P5">
+        <v>3.7202205769418122E-2</v>
+      </c>
+      <c r="Q5">
+        <v>3.6683596176462913E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.7404183748547974E-2</v>
+      </c>
+      <c r="S5">
+        <v>3.4520470666365488E-2</v>
+      </c>
+      <c r="T5">
+        <v>3.4720691752069432E-2</v>
+      </c>
+      <c r="U5">
+        <v>3.2650364029551147E-2</v>
+      </c>
+      <c r="V5">
+        <v>3.5011501821605513E-2</v>
+      </c>
+      <c r="W5">
+        <v>3.8481716185164432E-2</v>
+      </c>
+      <c r="X5">
+        <v>4.3399267121304493E-2</v>
+      </c>
+      <c r="Y5">
+        <v>4.6467732453357329E-2</v>
+      </c>
+      <c r="Z5">
+        <v>5.4141810905383524E-2</v>
+      </c>
+      <c r="AA5">
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2459,10 +5088,11 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99997430555555555</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
+        <v>0.99075000000000002</v>
+      </c>
+      <c r="F6" s="8" cm="1">
+        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6)</f>
+        <v>2283070607072</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -2471,8 +5101,16 @@
         <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" cm="1">
+        <f t="array" ref="J6">_xll.FI.CURVE.SPOT($J$2,I6)</f>
+        <v>3.715831656820115E-2</v>
+      </c>
+      <c r="K6" cm="1">
+        <f t="array" ref="K6">_xll.FI.CURVE.FORWARD($J$2,I6)</f>
+        <v>3.715831656820115E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2485,10 +5123,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99996574074074074</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
+        <v>0.98766666666666669</v>
+      </c>
+      <c r="F7" s="8" cm="1">
+        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7)</f>
+        <v>2283070609664</v>
       </c>
       <c r="H7">
         <v>0.5</v>
@@ -2496,8 +5135,16 @@
       <c r="I7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" cm="1">
+        <f t="array" ref="J7">_xll.FI.CURVE.SPOT($J$2,I7)</f>
+        <v>3.7323037168694624E-2</v>
+      </c>
+      <c r="K7" cm="1">
+        <f t="array" ref="K7">_xll.FI.CURVE.FORWARD($J$2,I7)</f>
+        <v>3.814664017116199E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2510,16 +5157,25 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99995000000000001</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F8" s="8" cm="1">
+        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8)</f>
+        <v>2283070603760</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" cm="1">
+        <f t="array" ref="J8">_xll.FI.CURVE.SPOT($J$2,I8)</f>
+        <v>3.7294240837115154E-2</v>
+      </c>
+      <c r="K8" cm="1">
+        <f t="array" ref="K8">_xll.FI.CURVE.FORWARD($J$2,I8)</f>
+        <v>3.6683596176462913E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2531,19 +5187,28 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99990305555555559</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="F9" s="8" cm="1">
+        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9)</f>
+        <v>2283070604048</v>
       </c>
       <c r="I9">
         <v>0.30000000000000004</v>
       </c>
+      <c r="J9" cm="1">
+        <f t="array" ref="J9">_xll.FI.CURVE.SPOT($J$2,I9)</f>
+        <v>3.721079054557859E-2</v>
+      </c>
+      <c r="K9" cm="1">
+        <f t="array" ref="K9">_xll.FI.CURVE.FORWARD($J$2,I9)</f>
+        <v>3.7404183748547974E-2</v>
+      </c>
       <c r="L9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2556,14 +5221,23 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" s="8" cm="1">
+        <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,1)</f>
+        <v>2283071126336</v>
       </c>
       <c r="I10">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" cm="1">
+        <f t="array" ref="J10">_xll.FI.CURVE.SPOT($J$2,I10)</f>
+        <v>3.6778519999290514E-2</v>
+      </c>
+      <c r="K10" cm="1">
+        <f t="array" ref="K10">_xll.FI.CURVE.FORWARD($J$2,I10)</f>
+        <v>3.4520470666365488E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2576,14 +5250,23 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
+      <c r="F11" s="8" cm="1">
+        <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,1)</f>
+        <v>2282961767376</v>
       </c>
       <c r="I11">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" cm="1">
+        <f t="array" ref="J11">_xll.FI.CURVE.SPOT($J$2,I11)</f>
+        <v>3.632691013270551E-2</v>
+      </c>
+      <c r="K11" cm="1">
+        <f t="array" ref="K11">_xll.FI.CURVE.FORWARD($J$2,I11)</f>
+        <v>3.4520470666365488E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2596,14 +5279,23 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
+      <c r="F12" s="8" cm="1">
+        <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,1)</f>
+        <v>2282961765456</v>
       </c>
       <c r="I12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" cm="1">
+        <f t="array" ref="J12">_xll.FI.CURVE.SPOT($J$2,I12)</f>
+        <v>3.6059207069266165E-2</v>
+      </c>
+      <c r="K12" cm="1">
+        <f t="array" ref="K12">_xll.FI.CURVE.FORWARD($J$2,I12)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2616,14 +5308,23 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="F13" s="8" cm="1">
+        <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,1)</f>
+        <v>2282961767536</v>
       </c>
       <c r="I13">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13" cm="1">
+        <f t="array" ref="J13">_xll.FI.CURVE.SPOT($J$2,I13)</f>
+        <v>3.5867990595380914E-2</v>
+      </c>
+      <c r="K13" cm="1">
+        <f t="array" ref="K13">_xll.FI.CURVE.FORWARD($J$2,I13)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2636,14 +5337,23 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="F14" s="8" cm="1">
+        <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,1)</f>
+        <v>2282961764016</v>
       </c>
       <c r="I14">
         <v>0.79999999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14" cm="1">
+        <f t="array" ref="J14">_xll.FI.CURVE.SPOT($J$2,I14)</f>
+        <v>3.5724578239966977E-2</v>
+      </c>
+      <c r="K14" cm="1">
+        <f t="array" ref="K14">_xll.FI.CURVE.FORWARD($J$2,I14)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2656,14 +5366,23 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
+      <c r="F15" s="8" cm="1">
+        <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,1)</f>
+        <v>2282961764176</v>
       </c>
       <c r="I15">
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">_xll.FI.CURVE.SPOT($J$2,I15)</f>
+        <v>3.5613035296867254E-2</v>
+      </c>
+      <c r="K15" cm="1">
+        <f t="array" ref="K15">_xll.FI.CURVE.FORWARD($J$2,I15)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2676,301 +5395,774 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
+      <c r="F16" s="8" cm="1">
+        <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,1)</f>
+        <v>2282961764976</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16" cm="1">
+        <f t="array" ref="J16">_xll.FI.CURVE.SPOT($J$2,I16)</f>
+        <v>3.5523800942387468E-2</v>
+      </c>
+      <c r="K16" cm="1">
+        <f t="array" ref="K16">_xll.FI.CURVE.FORWARD($J$2,I16)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I17">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17" cm="1">
+        <f t="array" ref="J17">_xll.FI.CURVE.SPOT($J$2,I17)</f>
+        <v>3.4565988638108697E-2</v>
+      </c>
+      <c r="K17" cm="1">
+        <f t="array" ref="K17">_xll.FI.CURVE.FORWARD($J$2,I17)</f>
+        <v>3.2650364029551147E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18" cm="1">
+        <f t="array" ref="J18">_xll.FI.CURVE.SPOT($J$2,I18)</f>
+        <v>3.4087082485969311E-2</v>
+      </c>
+      <c r="K18" cm="1">
+        <f t="array" ref="K18">_xll.FI.CURVE.FORWARD($J$2,I18)</f>
+        <v>3.2650364029551147E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I19">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" cm="1">
+        <f t="array" ref="J19">_xll.FI.CURVE.SPOT($J$2,I19)</f>
+        <v>3.4271966353096553E-2</v>
+      </c>
+      <c r="K19" cm="1">
+        <f t="array" ref="K19">_xll.FI.CURVE.FORWARD($J$2,I19)</f>
+        <v>3.5011501821605513E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J20" cm="1">
+        <f t="array" ref="J20">_xll.FI.CURVE.SPOT($J$2,I20)</f>
+        <v>3.4395222264514712E-2</v>
+      </c>
+      <c r="K20" cm="1">
+        <f t="array" ref="K20">_xll.FI.CURVE.FORWARD($J$2,I20)</f>
+        <v>3.5011501821605513E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I21">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J21" cm="1">
+        <f t="array" ref="J21">_xll.FI.CURVE.SPOT($J$2,I21)</f>
+        <v>3.4979007110321814E-2</v>
+      </c>
+      <c r="K21" cm="1">
+        <f t="array" ref="K21">_xll.FI.CURVE.FORWARD($J$2,I21)</f>
+        <v>3.8481716185164432E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" cm="1">
+        <f t="array" ref="J22">_xll.FI.CURVE.SPOT($J$2,I22)</f>
+        <v>3.5416845744677142E-2</v>
+      </c>
+      <c r="K22" cm="1">
+        <f t="array" ref="K22">_xll.FI.CURVE.FORWARD($J$2,I22)</f>
+        <v>3.8481716185164432E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I23">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J23" cm="1">
+        <f t="array" ref="J23">_xll.FI.CURVE.SPOT($J$2,I23)</f>
+        <v>3.5757386904731278E-2</v>
+      </c>
+      <c r="K23" cm="1">
+        <f t="array" ref="K23">_xll.FI.CURVE.FORWARD($J$2,I23)</f>
+        <v>3.8481716185164432E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24" cm="1">
+        <f t="array" ref="J24">_xll.FI.CURVE.SPOT($J$2,I24)</f>
+        <v>3.6029819832774604E-2</v>
+      </c>
+      <c r="K24" cm="1">
+        <f t="array" ref="K24">_xll.FI.CURVE.FORWARD($J$2,I24)</f>
+        <v>3.8481716185164432E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25" cm="1">
+        <f t="array" ref="J25">_xll.FI.CURVE.SPOT($J$2,I25)</f>
+        <v>3.6699769586277319E-2</v>
+      </c>
+      <c r="K25" cm="1">
+        <f t="array" ref="K25">_xll.FI.CURVE.FORWARD($J$2,I25)</f>
+        <v>4.3399267121304493E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26" cm="1">
+        <f t="array" ref="J26">_xll.FI.CURVE.SPOT($J$2,I26)</f>
+        <v>3.725806104752958E-2</v>
+      </c>
+      <c r="K26" cm="1">
+        <f t="array" ref="K26">_xll.FI.CURVE.FORWARD($J$2,I26)</f>
+        <v>4.3399267121304493E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I27">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J27" cm="1">
+        <f t="array" ref="J27">_xll.FI.CURVE.SPOT($J$2,I27)</f>
+        <v>3.7730461514743033E-2</v>
+      </c>
+      <c r="K27" cm="1">
+        <f t="array" ref="K27">_xll.FI.CURVE.FORWARD($J$2,I27)</f>
+        <v>4.3399267121304493E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I28">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" cm="1">
+        <f t="array" ref="J28">_xll.FI.CURVE.SPOT($J$2,I28)</f>
+        <v>3.8135376200925997E-2</v>
+      </c>
+      <c r="K28" cm="1">
+        <f t="array" ref="K28">_xll.FI.CURVE.FORWARD($J$2,I28)</f>
+        <v>4.3399267121304493E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I29">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29" cm="1">
+        <f t="array" ref="J29">_xll.FI.CURVE.SPOT($J$2,I29)</f>
+        <v>3.8690866617754754E-2</v>
+      </c>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29">_xll.FI.CURVE.FORWARD($J$2,I29)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" cm="1">
+        <f t="array" ref="J30">_xll.FI.CURVE.SPOT($J$2,I30)</f>
+        <v>3.9176920732479914E-2</v>
+      </c>
+      <c r="K30" cm="1">
+        <f t="array" ref="K30">_xll.FI.CURVE.FORWARD($J$2,I30)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I31">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31" cm="1">
+        <f t="array" ref="J31">_xll.FI.CURVE.SPOT($J$2,I31)</f>
+        <v>3.9605792010178588E-2</v>
+      </c>
+      <c r="K31" cm="1">
+        <f t="array" ref="K31">_xll.FI.CURVE.FORWARD($J$2,I31)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" cm="1">
+        <f t="array" ref="J32">_xll.FI.CURVE.SPOT($J$2,I32)</f>
+        <v>3.9987010923688518E-2</v>
+      </c>
+      <c r="K32" cm="1">
+        <f t="array" ref="K32">_xll.FI.CURVE.FORWARD($J$2,I32)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I33">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33" cm="1">
+        <f t="array" ref="J33">_xll.FI.CURVE.SPOT($J$2,I33)</f>
+        <v>4.0328101530513194E-2</v>
+      </c>
+      <c r="K33" cm="1">
+        <f t="array" ref="K33">_xll.FI.CURVE.FORWARD($J$2,I33)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I34">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J34" cm="1">
+        <f t="array" ref="J34">_xll.FI.CURVE.SPOT($J$2,I34)</f>
+        <v>4.06350830766554E-2</v>
+      </c>
+      <c r="K34" cm="1">
+        <f t="array" ref="K34">_xll.FI.CURVE.FORWARD($J$2,I34)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I35">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J35" cm="1">
+        <f t="array" ref="J35">_xll.FI.CURVE.SPOT($J$2,I35)</f>
+        <v>4.1278260592309116E-2</v>
+      </c>
+      <c r="K35" cm="1">
+        <f t="array" ref="K35">_xll.FI.CURVE.FORWARD($J$2,I35)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I36">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J36" cm="1">
+        <f t="array" ref="J36">_xll.FI.CURVE.SPOT($J$2,I36)</f>
+        <v>4.1862967424721592E-2</v>
+      </c>
+      <c r="K36" cm="1">
+        <f t="array" ref="K36">_xll.FI.CURVE.FORWARD($J$2,I36)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I37">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J37" cm="1">
+        <f t="array" ref="J37">_xll.FI.CURVE.SPOT($J$2,I37)</f>
+        <v>4.2396830184750371E-2</v>
+      </c>
+      <c r="K37" cm="1">
+        <f t="array" ref="K37">_xll.FI.CURVE.FORWARD($J$2,I37)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I38">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J38" cm="1">
+        <f t="array" ref="J38">_xll.FI.CURVE.SPOT($J$2,I38)</f>
+        <v>4.2886204381443416E-2</v>
+      </c>
+      <c r="K38" cm="1">
+        <f t="array" ref="K38">_xll.FI.CURVE.FORWARD($J$2,I38)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I39">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J39" cm="1">
+        <f t="array" ref="J39">_xll.FI.CURVE.SPOT($J$2,I39)</f>
+        <v>4.3336428642401031E-2</v>
+      </c>
+      <c r="K39" cm="1">
+        <f t="array" ref="K39">_xll.FI.CURVE.FORWARD($J$2,I39)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I40">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J40" cm="1">
+        <f t="array" ref="J40">_xll.FI.CURVE.SPOT($J$2,I40)</f>
+        <v>4.3752020267900343E-2</v>
+      </c>
+      <c r="K40" cm="1">
+        <f t="array" ref="K40">_xll.FI.CURVE.FORWARD($J$2,I40)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I41">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J41" cm="1">
+        <f t="array" ref="J41">_xll.FI.CURVE.SPOT($J$2,I41)</f>
+        <v>4.413682732854788E-2</v>
+      </c>
+      <c r="K41" cm="1">
+        <f t="array" ref="K41">_xll.FI.CURVE.FORWARD($J$2,I41)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I42">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J42" cm="1">
+        <f t="array" ref="J42">_xll.FI.CURVE.SPOT($J$2,I42)</f>
+        <v>4.4494148170577723E-2</v>
+      </c>
+      <c r="K42" cm="1">
+        <f t="array" ref="K42">_xll.FI.CURVE.FORWARD($J$2,I42)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I43">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J43" cm="1">
+        <f t="array" ref="J43">_xll.FI.CURVE.SPOT($J$2,I43)</f>
+        <v>4.4826826195915853E-2</v>
+      </c>
+      <c r="K43" cm="1">
+        <f t="array" ref="K43">_xll.FI.CURVE.FORWARD($J$2,I43)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J44" cm="1">
+        <f t="array" ref="J44">_xll.FI.CURVE.SPOT($J$2,I44)</f>
+        <v>4.5137325686231439E-2</v>
+      </c>
+      <c r="K44" cm="1">
+        <f t="array" ref="K44">_xll.FI.CURVE.FORWARD($J$2,I44)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I45">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J45" cm="1">
+        <f t="array" ref="J45">_xll.FI.CURVE.SPOT($J$2,I45)</f>
+        <v>4.5427792951365377E-2</v>
+      </c>
+      <c r="K45" cm="1">
+        <f t="array" ref="K45">_xll.FI.CURVE.FORWARD($J$2,I45)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J46" cm="1">
+        <f t="array" ref="J46">_xll.FI.CURVE.SPOT($J$2,I46)</f>
+        <v>4.5700106012428444E-2</v>
+      </c>
+      <c r="K46" cm="1">
+        <f t="array" ref="K46">_xll.FI.CURVE.FORWARD($J$2,I46)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I47">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J47" cm="1">
+        <f t="array" ref="J47">_xll.FI.CURVE.SPOT($J$2,I47)</f>
+        <v>4.59559152516089E-2</v>
+      </c>
+      <c r="K47" cm="1">
+        <f t="array" ref="K47">_xll.FI.CURVE.FORWARD($J$2,I47)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I48">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J48" cm="1">
+        <f t="array" ref="J48">_xll.FI.CURVE.SPOT($J$2,I48)</f>
+        <v>4.6196676888484632E-2</v>
+      </c>
+      <c r="K48" cm="1">
+        <f t="array" ref="K48">_xll.FI.CURVE.FORWARD($J$2,I48)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I49">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49" cm="1">
+        <f t="array" ref="J49">_xll.FI.CURVE.SPOT($J$2,I49)</f>
+        <v>4.6423680717538877E-2</v>
+      </c>
+      <c r="K49" cm="1">
+        <f t="array" ref="K49">_xll.FI.CURVE.FORWARD($J$2,I49)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I50">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J50" cm="1">
+        <f t="array" ref="J50">_xll.FI.CURVE.SPOT($J$2,I50)</f>
+        <v>4.6638073222756787E-2</v>
+      </c>
+      <c r="K50" cm="1">
+        <f t="array" ref="K50">_xll.FI.CURVE.FORWARD($J$2,I50)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I51">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J51" cm="1">
+        <f t="array" ref="J51">_xll.FI.CURVE.SPOT($J$2,I51)</f>
+        <v>4.6840876943908857E-2</v>
+      </c>
+      <c r="K51" cm="1">
+        <f t="array" ref="K51">_xll.FI.CURVE.FORWARD($J$2,I51)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I52">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J52" cm="1">
+        <f t="array" ref="J52">_xll.FI.CURVE.SPOT($J$2,I52)</f>
+        <v>4.7033006785000303E-2</v>
+      </c>
+      <c r="K52" cm="1">
+        <f t="array" ref="K52">_xll.FI.CURVE.FORWARD($J$2,I52)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I53">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J53" cm="1">
+        <f t="array" ref="J53">_xll.FI.CURVE.SPOT($J$2,I53)</f>
+        <v>4.7215283813728075E-2</v>
+      </c>
+      <c r="K53" cm="1">
+        <f t="array" ref="K53">_xll.FI.CURVE.FORWARD($J$2,I53)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I54">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J54" cm="1">
+        <f t="array" ref="J54">_xll.FI.CURVE.SPOT($J$2,I54)</f>
+        <v>4.7388446991019462E-2</v>
+      </c>
+      <c r="K54" cm="1">
+        <f t="array" ref="K54">_xll.FI.CURVE.FORWARD($J$2,I54)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I55">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J55" cm="1">
+        <f t="array" ref="J55">_xll.FI.CURVE.SPOT($J$2,I55)</f>
+        <v>4.7416517109592764E-2</v>
+      </c>
+      <c r="K55" cm="1">
+        <f t="array" ref="K55">_xll.FI.CURVE.FORWARD($J$2,I55)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I56">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J56" cm="1">
+        <f t="array" ref="J56">_xll.FI.CURVE.SPOT($J$2,I56)</f>
+        <v>4.744325055585305E-2</v>
+      </c>
+      <c r="K56" cm="1">
+        <f t="array" ref="K56">_xll.FI.CURVE.FORWARD($J$2,I56)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I57">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J57" cm="1">
+        <f t="array" ref="J57">_xll.FI.CURVE.SPOT($J$2,I57)</f>
+        <v>4.746874058600821E-2</v>
+      </c>
+      <c r="K57" cm="1">
+        <f t="array" ref="K57">_xll.FI.CURVE.FORWARD($J$2,I57)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I58">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J58" cm="1">
+        <f t="array" ref="J58">_xll.FI.CURVE.SPOT($J$2,I58)</f>
+        <v>4.7493071978429044E-2</v>
+      </c>
+      <c r="K58" cm="1">
+        <f t="array" ref="K58">_xll.FI.CURVE.FORWARD($J$2,I58)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I59">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J59" cm="1">
+        <f t="array" ref="J59">_xll.FI.CURVE.SPOT($J$2,I59)</f>
+        <v>4.7516321975631173E-2</v>
+      </c>
+      <c r="K59" cm="1">
+        <f t="array" ref="K59">_xll.FI.CURVE.FORWARD($J$2,I59)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I60">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J60" cm="1">
+        <f t="array" ref="J60">_xll.FI.CURVE.SPOT($J$2,I60)</f>
+        <v>4.7538561103389727E-2</v>
+      </c>
+      <c r="K60" cm="1">
+        <f t="array" ref="K60">_xll.FI.CURVE.FORWARD($J$2,I60)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I61">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J61" cm="1">
+        <f t="array" ref="J61">_xll.FI.CURVE.SPOT($J$2,I61)</f>
+        <v>4.7559853885286218E-2</v>
+      </c>
+      <c r="K61" cm="1">
+        <f t="array" ref="K61">_xll.FI.CURVE.FORWARD($J$2,I61)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I62">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J62" cm="1">
+        <f t="array" ref="J62">_xll.FI.CURVE.SPOT($J$2,I62)</f>
+        <v>4.7580259467937029E-2</v>
+      </c>
+      <c r="K62" cm="1">
+        <f t="array" ref="K62">_xll.FI.CURVE.FORWARD($J$2,I62)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I63">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J63" cm="1">
+        <f t="array" ref="J63">_xll.FI.CURVE.SPOT($J$2,I63)</f>
+        <v>4.7599832169663313E-2</v>
+      </c>
+      <c r="K63" cm="1">
+        <f t="array" ref="K63">_xll.FI.CURVE.FORWARD($J$2,I63)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I64">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J64" cm="1">
+        <f t="array" ref="J64">_xll.FI.CURVE.SPOT($J$2,I64)</f>
+        <v>4.7618621963320534E-2</v>
+      </c>
+      <c r="K64" cm="1">
+        <f t="array" ref="K64">_xll.FI.CURVE.FORWARD($J$2,I64)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I65">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J65" cm="1">
+        <f t="array" ref="J65">_xll.FI.CURVE.SPOT($J$2,I65)</f>
+        <v>4.7636674902324545E-2</v>
+      </c>
+      <c r="K65" cm="1">
+        <f t="array" ref="K65">_xll.FI.CURVE.FORWARD($J$2,I65)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I66">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J66" cm="1">
+        <f t="array" ref="J66">_xll.FI.CURVE.SPOT($J$2,I66)</f>
+        <v>4.7654033497520704E-2</v>
+      </c>
+      <c r="K66" cm="1">
+        <f t="array" ref="K66">_xll.FI.CURVE.FORWARD($J$2,I66)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I67">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J67" cm="1">
+        <f t="array" ref="J67">_xll.FI.CURVE.SPOT($J$2,I67)</f>
+        <v>4.767073705138871E-2</v>
+      </c>
+      <c r="K67" cm="1">
+        <f t="array" ref="K67">_xll.FI.CURVE.FORWARD($J$2,I67)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I68">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J68" cm="1">
+        <f t="array" ref="J68">_xll.FI.CURVE.SPOT($J$2,I68)</f>
+        <v>4.7686821955113451E-2</v>
+      </c>
+      <c r="K68" cm="1">
+        <f t="array" ref="K68">_xll.FI.CURVE.FORWARD($J$2,I68)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I69">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J69" cm="1">
+        <f t="array" ref="J69">_xll.FI.CURVE.SPOT($J$2,I69)</f>
+        <v>4.7702321953248202E-2</v>
+      </c>
+      <c r="K69" cm="1">
+        <f t="array" ref="K69">_xll.FI.CURVE.FORWARD($J$2,I69)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I70">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J70" cm="1">
+        <f t="array" ref="J70">_xll.FI.CURVE.SPOT($J$2,I70)</f>
+        <v>4.7717268380021001E-2</v>
+      </c>
+      <c r="K70" cm="1">
+        <f t="array" ref="K70">_xll.FI.CURVE.FORWARD($J$2,I70)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I71">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J71" cm="1">
+        <f t="array" ref="J71">_xll.FI.CURVE.SPOT($J$2,I71)</f>
+        <v>4.7731690370766675E-2</v>
+      </c>
+      <c r="K71" cm="1">
+        <f t="array" ref="K71">_xll.FI.CURVE.FORWARD($J$2,I71)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I72">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J72" cm="1">
+        <f t="array" ref="J72">_xll.FI.CURVE.SPOT($J$2,I72)</f>
+        <v>4.7745615051486646E-2</v>
+      </c>
+      <c r="K72" cm="1">
+        <f t="array" ref="K72">_xll.FI.CURVE.FORWARD($J$2,I72)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I73">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J73" cm="1">
+        <f t="array" ref="J73">_xll.FI.CURVE.SPOT($J$2,I73)</f>
+        <v>4.7759067709131367E-2</v>
+      </c>
+      <c r="K73" cm="1">
+        <f t="array" ref="K73">_xll.FI.CURVE.FORWARD($J$2,I73)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
       <c r="I74">
         <v>30</v>
+      </c>
+      <c r="J74" cm="1">
+        <f t="array" ref="J74">_xll.FI.CURVE.SPOT($J$2,I74)</f>
+        <v>4.777207194485459E-2</v>
+      </c>
+      <c r="K74" cm="1">
+        <f t="array" ref="K74">_xll.FI.CURVE.FORWARD($J$2,I74)</f>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2978,6 +6170,7 @@
   <ignoredErrors>
     <ignoredError sqref="C4" formula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\xlladdins\xll_ml\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13466\source\repos\xll_ml_hw4_enhua_zhu\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5BFD9-3A70-4863-97A7-481AF96E09BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52192D03-9E7F-480F-B95E-32E6194FDC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22276" windowHeight="13996" activeTab="1" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="3504" yWindow="660" windowWidth="19176" windowHeight="12480" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -67,7 +64,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -89,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
@@ -151,19 +148,10 @@
     <t>bill/bond</t>
   </si>
   <si>
-    <t>usd \fi.bond</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>1.5 Mo</t>
   </si>
   <si>
     <t>bootstrap</t>
-  </si>
-  <si>
-    <t>use \fi.zero cupon bond</t>
   </si>
   <si>
     <t>use \fi.ucurve.bootstrap</t>
@@ -182,6 +170,15 @@
   </si>
   <si>
     <t>plot curve here using pwflate.spot, forward</t>
+  </si>
+  <si>
+    <t>INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>ZCB</t>
+  </si>
+  <si>
+    <t>Bond</t>
   </si>
 </sst>
 </file>
@@ -275,7 +272,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,6 +286,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -701,14 +702,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
@@ -746,7 +747,7 @@
 01/02/2026,3.72,3.71,3.66,3.65,3.62,3.58,3.47,3.47,3.55,3.74,3.95,4.19,4.81,4.86</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
@@ -794,7 +795,7 @@
         <v>"30 Yr"</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
         <v>02/18/2026</v>
       </c>
@@ -841,7 +842,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
         <v>02/17/2026</v>
       </c>
@@ -888,7 +889,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
         <v>02/13/2026</v>
       </c>
@@ -935,7 +936,7 @@
         <v>4.69</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="str">
         <v>02/12/2026</v>
       </c>
@@ -982,7 +983,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
         <v>02/11/2026</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
         <v>02/10/2026</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
         <v>02/09/2026</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
         <v>02/06/2026</v>
       </c>
@@ -1170,7 +1171,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
         <v>02/05/2026</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
         <v>02/04/2026</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
         <v>02/03/2026</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
         <v>02/02/2026</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>4.90</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
         <v>01/30/2026</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
         <v>01/29/2026</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
         <v>01/28/2026</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
         <v>01/27/2026</v>
       </c>
@@ -1546,7 +1547,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
         <v>01/26/2026</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>4.80</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
         <v>01/23/2026</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
         <v>01/22/2026</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
         <v>01/21/2026</v>
       </c>
@@ -1734,7 +1735,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="str">
         <v>01/20/2026</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
         <v>01/16/2026</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
         <v>01/15/2026</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
         <v>01/14/2026</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>4.79</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
         <v>01/13/2026</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
         <v>01/12/2026</v>
       </c>
@@ -2016,7 +2017,7 @@
         <v>4.83</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="str">
         <v>01/09/2026</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="str">
         <v>01/08/2026</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="str">
         <v>01/07/2026</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="str">
         <v>01/06/2026</v>
       </c>
@@ -2204,7 +2205,7 @@
         <v>4.86</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
         <v>01/05/2026</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>4.85</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
         <v>01/02/2026</v>
       </c>
@@ -2308,40 +2309,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="2">
+        <f>B4*1.01</f>
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:E4" si="0">C4*1.01</f>
+        <v>5.1005000000000002E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.151505E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">_xll.\FI.INSTRUMENT(B3:E3,B4:E4)</f>
+        <v>2349076000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6:E7">_xll.FI.INSTRUMENT(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.1005000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.151505E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" cm="1">
+        <f t="array" ref="B11">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B9,B10)</f>
+        <v>2349076109584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" cm="1">
+        <f t="array" ref="B12:B13">_xll.FI.INSTRUMENT(B11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" cm="1">
+        <f t="array" ref="B15">_xll.\FI.INSTRUMENT.BOND(2,0.05,2)</f>
+        <v>2348474432256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" cm="1">
+        <f t="array" ref="B16:E17">_xll.FI.INSTRUMENT(B15)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.0249999999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>0.05</v>
+      </c>
+      <c r="C4">
+        <f>B4*1.01</f>
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:F4" si="0">C4*1.01</f>
+        <v>5.1005000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.151505E-2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>5.2030200499999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" cm="1">
+        <f t="array" ref="B5">_xll.\FI.CURVE.PWFLAT(B3:F3,B4:F4)</f>
+        <v>2349076113184</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6:F7">_xll.FI.CURVE.PWFLAT(B5)</f>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>5.1005000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.151505E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.2030200499999998E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2353,11 +2575,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
   <dimension ref="B2:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2371,13 +2598,17 @@
         <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>22</v>
+      </c>
+      <c r="I2" t="e" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">\FI.CURVE.PWFLAT.BOOTSTRAP(E3:E16,F3:F16)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2392,13 +2623,15 @@
         <f>1-D3*C3/360</f>
         <v>0.99999141203703701</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="8" cm="1">
+        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3,D3)</f>
+        <v>2349076114336</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <f>1.5/12</f>
@@ -2411,14 +2644,15 @@
         <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
         <v>0.99998701388888889</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
+      <c r="F4" s="8" cm="1">
+        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4,D4)</f>
+        <v>2349076101232</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2433,20 +2667,21 @@
         <f t="shared" si="0"/>
         <v>0.99998273148148153</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
+      <c r="F5" s="8" cm="1">
+        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5,D5)</f>
+        <v>2349075988048</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2461,8 +2696,9 @@
         <f t="shared" si="0"/>
         <v>0.99997430555555555</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
+      <c r="F6" s="8" cm="1">
+        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6,D6)</f>
+        <v>2349076113328</v>
       </c>
       <c r="H6">
         <v>0.1</v>
@@ -2471,8 +2707,12 @@
         <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" t="e" cm="1">
+        <f t="array" ref="J6">_xll.FI.CURVE.SPOT($J$2,I6)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2487,8 +2727,9 @@
         <f t="shared" si="0"/>
         <v>0.99996574074074074</v>
       </c>
-      <c r="F7" t="s">
-        <v>21</v>
+      <c r="F7" s="8" cm="1">
+        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7,D7)</f>
+        <v>2349075991072</v>
       </c>
       <c r="H7">
         <v>0.5</v>
@@ -2497,7 +2738,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2512,14 +2753,15 @@
         <f t="shared" si="0"/>
         <v>0.99995000000000001</v>
       </c>
-      <c r="F8" t="s">
-        <v>21</v>
+      <c r="F8" s="8" cm="1">
+        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8,D8)</f>
+        <v>2349076095904</v>
       </c>
       <c r="I8">
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2533,17 +2775,18 @@
         <f t="shared" si="0"/>
         <v>0.99990305555555559</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
+      <c r="F9" s="8" cm="1">
+        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9,D9)</f>
+        <v>2349076113904</v>
       </c>
       <c r="I9">
         <v>0.30000000000000004</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2556,14 +2799,15 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
+      <c r="F10" s="8" cm="1">
+        <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,1)</f>
+        <v>2348474432096</v>
       </c>
       <c r="I10">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2576,14 +2820,15 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>21</v>
+      <c r="F11" s="8" cm="1">
+        <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,1)</f>
+        <v>2348474431936</v>
       </c>
       <c r="I11">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2596,14 +2841,15 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>21</v>
+      <c r="F12" s="8" cm="1">
+        <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,1)</f>
+        <v>2348474434016</v>
       </c>
       <c r="I12">
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2616,14 +2862,15 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>21</v>
+      <c r="F13" s="8" cm="1">
+        <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,1)</f>
+        <v>2348282137904</v>
       </c>
       <c r="I13">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2636,14 +2883,15 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
+      <c r="F14" s="8" cm="1">
+        <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,1)</f>
+        <v>2348474431136</v>
       </c>
       <c r="I14">
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2656,14 +2904,15 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>21</v>
+      <c r="F15" s="8" cm="1">
+        <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,1)</f>
+        <v>2348474433696</v>
       </c>
       <c r="I15">
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2676,299 +2925,300 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
-        <v>21</v>
+      <c r="F16" s="8" cm="1">
+        <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,1)</f>
+        <v>2348474436896</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17">
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I19">
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I21">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I23">
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I25">
         <v>5.5</v>
       </c>
     </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I26">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I27">
         <v>6.5</v>
       </c>
     </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I29">
         <v>7.5</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I30">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I31">
         <v>8.5</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I33">
         <v>9.5</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I34">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I35">
         <v>10.5</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I36">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I37">
         <v>11.5</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I38">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I39">
         <v>12.5</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I40">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I41">
         <v>13.5</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I42">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I43">
         <v>14.5</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I44">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I45">
         <v>15.5</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I46">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I47">
         <v>16.5</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I48">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I49">
         <v>17.5</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I50">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I51">
         <v>18.5</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I52">
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I53">
         <v>19.5</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I54">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I55">
         <v>20.5</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I56">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I57">
         <v>21.5</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I58">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I59">
         <v>22.5</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I60">
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I61">
         <v>23.5</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I62">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I63">
         <v>24.5</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I64">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65">
         <v>25.5</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I66">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I67">
         <v>26.5</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I68">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I69">
         <v>27.5</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I70">
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I71">
         <v>28.5</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I72">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I73">
         <v>29.5</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I74">
         <v>30</v>
       </c>

--- a/xlsx/hw4.xlsx
+++ b/xlsx/hw4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13466\source\repos\xll_ml_hw4_enhua_zhu\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52192D03-9E7F-480F-B95E-32E6194FDC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B842A961-B8AC-44E8-95E8-9FA82B8F0AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3504" yWindow="660" windowWidth="19176" windowHeight="12480" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19176" windowHeight="12480" activeTab="3" xr2:uid="{EDEE3299-5466-402C-8B4F-6E69C4CA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Treasury Rates" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>https://home.treasury.gov/resource-center/data-chart-center/interest-rates/daily-treasury-rates.csv/2026/all?field_tdr_date_value=2026&amp;type=daily_treasury_yield_curve&amp;page&amp;_format=csv</t>
   </si>
@@ -172,13 +172,16 @@
     <t>plot curve here using pwflate.spot, forward</t>
   </si>
   <si>
-    <t>INSTRUMENTS</t>
+    <t>instrument</t>
   </si>
   <si>
-    <t>ZCB</t>
+    <t>zero bond</t>
   </si>
   <si>
-    <t>Bond</t>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>Demonstration</t>
   </si>
 </sst>
 </file>
@@ -189,7 +192,7 @@
     <numFmt numFmtId="164" formatCode="&quot;0x&quot;#"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -225,6 +228,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -272,7 +281,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -287,10 +296,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Handle" xfId="3" xr:uid="{FB5D0E3F-B7C2-471A-97B4-EF18ADDF021D}"/>
@@ -377,6 +389,2387 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spot</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Forward</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>spot</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Bootstrap!$K$7:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bootstrap!$L$7:$L$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>3.715831656820115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7323037168694624E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7294240837115154E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.721079054557859E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6778519999290514E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.632691013270551E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6059207069266165E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5867990595380914E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5724578239966977E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5613035296867254E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.5523800942387468E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4565988638108697E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4087082485969311E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4271966353096553E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4395222264514712E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4979007110321814E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5416845744677142E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5757386904731278E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6029819832774604E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6699769586277319E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.725806104752958E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.7730461514743033E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.8135376200925997E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.8690866617754754E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.9176920732479914E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.9605792010178588E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.9987010923688518E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.0328101530513194E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.06350830766554E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.1278260592309116E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.1862967424721592E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.2396830184750371E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.2886204381443416E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3336428642401031E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3752020267900343E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.413682732854788E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.4494148170577723E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4826826195915853E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5137325686231439E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5427792951365377E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.5700106012428444E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.59559152516089E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6196676888484632E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.6423680717538877E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.6638073222756787E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.6840876943908857E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.7033006785000303E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7215283813728075E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.7388446991019462E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7416517109592764E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.744325055585305E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.746874058600821E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.7493071978429044E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.7516321975631173E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.7538561103389727E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.7559853885286218E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7580259467937029E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.7599832169663313E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.7618621963320534E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.7636674902324545E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.7654033497520704E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.767073705138871E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.7686821955113451E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.7702321953248202E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.7717268380021001E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.7731690370766675E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.7745615051486646E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.7759067709131367E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.777207194485459E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6910-4A59-8E24-EAFA4821760E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Bootstrap!$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>forward</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Bootstrap!$K$7:$K$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Bootstrap!$M$7:$M$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>3.715831656820115E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.814664017116199E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6683596176462913E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7404183748547974E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4520470666365488E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4520470666365488E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4720691752069432E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2650364029551147E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2650364029551147E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5011501821605513E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5011501821605513E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8481716185164432E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8481716185164432E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8481716185164432E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8481716185164432E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3399267121304493E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.3399267121304493E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3399267121304493E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3399267121304493E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.6467732453357329E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.4141810905383524E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8539321852524846E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6910-4A59-8E24-EAFA4821760E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="190917167"/>
+        <c:axId val="190917647"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Bootstrap!$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>t</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Bootstrap!$K$7:$K$75</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="69"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.30000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.79999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.89999999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>10.5</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>11.5</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>16.5</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>17.5</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>18.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>19.5</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>21.5</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>22.5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>23.5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>24.5</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>26.5</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>27.5</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>28.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>29.5</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Bootstrap!$K$7:$K$75</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="69"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.30000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.79999999999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.89999999999999991</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>4.5</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>5.5</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>6.5</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>8.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>9.5</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>10.5</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>11.5</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>12.5</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>14.5</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>15.5</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>16.5</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>17.5</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>18.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>19.5</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>20.5</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>21.5</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>22.5</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>23.5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>24.5</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>25.5</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>26.5</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>27.5</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>28.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>29.5</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-6910-4A59-8E24-EAFA4821760E}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="190917167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> t</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190917647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190917647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190917167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>31976</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>184376</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9207E9CD-A2C6-77AD-1AE0-48457CA67C05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,9 +3089,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643E00C4-F6CC-4E64-A377-FDB90E30013C}">
-  <dimension ref="B2:P38"/>
+  <dimension ref="B2:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -713,6 +3106,8 @@
       <c r="B4" t="str">
         <f>_xlfn.WEBSERVICE(B2)</f>
         <v>Date,"1 Mo","1.5 Month","2 Mo","3 Mo","4 Mo","6 Mo","1 Yr","2 Yr","3 Yr","5 Yr","7 Yr","10 Yr","20 Yr","30 Yr"
+02/20/2026,3.72,3.73,3.74,3.69,3.71,3.61,3.51,3.48,3.50,3.65,3.85,4.08,4.66,4.72
+02/19/2026,3.72,3.74,3.75,3.69,3.70,3.60,3.50,3.47,3.50,3.65,3.85,4.08,4.64,4.70
 02/18/2026,3.71,3.74,3.73,3.70,3.70,3.60,3.49,3.47,3.50,3.66,3.86,4.09,4.65,4.71
 02/17/2026,3.72,3.75,3.73,3.69,3.70,3.59,3.48,3.43,3.47,3.63,3.82,4.05,4.63,4.68
 02/13/2026,3.72,3.71,3.73,3.68,3.70,3.59,3.42,3.40,3.43,3.61,3.81,4.04,4.64,4.69
@@ -749,7 +3144,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="str" cm="1">
-        <f t="array" ref="B6:P38">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
+        <f t="array" ref="B6:P40">_xlfn.TEXTSPLIT(B4,",",CHAR(10))</f>
         <v>Date</v>
       </c>
       <c r="C6" t="str">
@@ -797,63 +3192,63 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" t="str">
-        <v>02/18/2026</v>
+        <v>02/20/2026</v>
       </c>
       <c r="C7" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D7" t="str">
+        <v>3.73</v>
+      </c>
+      <c r="E7" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="F7" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="G7" t="str">
         <v>3.71</v>
       </c>
-      <c r="D7" t="str">
-        <v>3.74</v>
-      </c>
-      <c r="E7" t="str">
-        <v>3.73</v>
-      </c>
-      <c r="F7" t="str">
-        <v>3.70</v>
-      </c>
-      <c r="G7" t="str">
-        <v>3.70</v>
-      </c>
       <c r="H7" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="I7" t="str">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="J7" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="K7" t="str">
         <v>3.50</v>
       </c>
       <c r="L7" t="str">
-        <v>3.66</v>
+        <v>3.65</v>
       </c>
       <c r="M7" t="str">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="N7" t="str">
-        <v>4.09</v>
+        <v>4.08</v>
       </c>
       <c r="O7" t="str">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
       <c r="P7" t="str">
-        <v>4.71</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" t="str">
-        <v>02/17/2026</v>
+        <v>02/19/2026</v>
       </c>
       <c r="C8" t="str">
         <v>3.72</v>
       </c>
       <c r="D8" t="str">
+        <v>3.74</v>
+      </c>
+      <c r="E8" t="str">
         <v>3.75</v>
-      </c>
-      <c r="E8" t="str">
-        <v>3.73</v>
       </c>
       <c r="F8" t="str">
         <v>3.69</v>
@@ -862,133 +3257,133 @@
         <v>3.70</v>
       </c>
       <c r="H8" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I8" t="str">
-        <v>3.48</v>
+        <v>3.50</v>
       </c>
       <c r="J8" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="K8" t="str">
-        <v>3.47</v>
+        <v>3.50</v>
       </c>
       <c r="L8" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="str">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="N8" t="str">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="O8" t="str">
-        <v>4.63</v>
+        <v>4.64</v>
       </c>
       <c r="P8" t="str">
-        <v>4.68</v>
+        <v>4.70</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="str">
-        <v>02/13/2026</v>
+        <v>02/18/2026</v>
       </c>
       <c r="C9" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D9" t="str">
-        <v>3.71</v>
+        <v>3.74</v>
       </c>
       <c r="E9" t="str">
         <v>3.73</v>
       </c>
       <c r="F9" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="G9" t="str">
         <v>3.70</v>
       </c>
       <c r="H9" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I9" t="str">
-        <v>3.42</v>
+        <v>3.49</v>
       </c>
       <c r="J9" t="str">
-        <v>3.40</v>
+        <v>3.47</v>
       </c>
       <c r="K9" t="str">
-        <v>3.43</v>
+        <v>3.50</v>
       </c>
       <c r="L9" t="str">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="M9" t="str">
-        <v>3.81</v>
+        <v>3.86</v>
       </c>
       <c r="N9" t="str">
-        <v>4.04</v>
+        <v>4.09</v>
       </c>
       <c r="O9" t="str">
-        <v>4.64</v>
+        <v>4.65</v>
       </c>
       <c r="P9" t="str">
-        <v>4.69</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="str">
-        <v>02/12/2026</v>
+        <v>02/17/2026</v>
       </c>
       <c r="C10" t="str">
         <v>3.72</v>
       </c>
       <c r="D10" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="E10" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F10" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="G10" t="str">
         <v>3.70</v>
       </c>
       <c r="H10" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I10" t="str">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="J10" t="str">
+        <v>3.43</v>
+      </c>
+      <c r="K10" t="str">
         <v>3.47</v>
       </c>
-      <c r="K10" t="str">
-        <v>3.49</v>
-      </c>
       <c r="L10" t="str">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="M10" t="str">
-        <v>3.87</v>
+        <v>3.82</v>
       </c>
       <c r="N10" t="str">
-        <v>4.09</v>
+        <v>4.05</v>
       </c>
       <c r="O10" t="str">
+        <v>4.63</v>
+      </c>
+      <c r="P10" t="str">
         <v>4.68</v>
-      </c>
-      <c r="P10" t="str">
-        <v>4.72</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="str">
-        <v>02/11/2026</v>
+        <v>02/13/2026</v>
       </c>
       <c r="C11" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="D11" t="str">
         <v>3.71</v>
@@ -997,136 +3392,136 @@
         <v>3.73</v>
       </c>
       <c r="F11" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="G11" t="str">
         <v>3.70</v>
       </c>
       <c r="H11" t="str">
-        <v>3.60</v>
+        <v>3.59</v>
       </c>
       <c r="I11" t="str">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="J11" t="str">
-        <v>3.52</v>
+        <v>3.40</v>
       </c>
       <c r="K11" t="str">
-        <v>3.55</v>
+        <v>3.43</v>
       </c>
       <c r="L11" t="str">
-        <v>3.75</v>
+        <v>3.61</v>
       </c>
       <c r="M11" t="str">
-        <v>3.96</v>
+        <v>3.81</v>
       </c>
       <c r="N11" t="str">
-        <v>4.18</v>
+        <v>4.04</v>
       </c>
       <c r="O11" t="str">
-        <v>4.76</v>
+        <v>4.64</v>
       </c>
       <c r="P11" t="str">
-        <v>4.82</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="str">
-        <v>02/10/2026</v>
+        <v>02/12/2026</v>
       </c>
       <c r="C12" t="str">
         <v>3.72</v>
       </c>
       <c r="D12" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E12" t="str">
         <v>3.74</v>
       </c>
       <c r="F12" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G12" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H12" t="str">
         <v>3.58</v>
       </c>
       <c r="I12" t="str">
-        <v>3.40</v>
+        <v>3.45</v>
       </c>
       <c r="J12" t="str">
-        <v>3.45</v>
+        <v>3.47</v>
       </c>
       <c r="K12" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="L12" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="M12" t="str">
-        <v>3.92</v>
+        <v>3.87</v>
       </c>
       <c r="N12" t="str">
-        <v>4.16</v>
+        <v>4.09</v>
       </c>
       <c r="O12" t="str">
-        <v>4.73</v>
+        <v>4.68</v>
       </c>
       <c r="P12" t="str">
-        <v>4.78</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="str">
-        <v>02/09/2026</v>
+        <v>02/11/2026</v>
       </c>
       <c r="C13" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="D13" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E13" t="str">
         <v>3.73</v>
       </c>
       <c r="F13" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="G13" t="str">
         <v>3.70</v>
       </c>
       <c r="H13" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I13" t="str">
-        <v>3.43</v>
+        <v>3.47</v>
       </c>
       <c r="J13" t="str">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="K13" t="str">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="str">
         <v>3.75</v>
       </c>
       <c r="M13" t="str">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="N13" t="str">
-        <v>4.22</v>
+        <v>4.18</v>
       </c>
       <c r="O13" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P13" t="str">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="str">
-        <v>02/06/2026</v>
+        <v>02/10/2026</v>
       </c>
       <c r="C14" t="str">
         <v>3.72</v>
@@ -1138,78 +3533,78 @@
         <v>3.74</v>
       </c>
       <c r="F14" t="str">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="G14" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="H14" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I14" t="str">
+        <v>3.40</v>
+      </c>
+      <c r="J14" t="str">
+        <v>3.45</v>
+      </c>
+      <c r="K14" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="L14" t="str">
         <v>3.70</v>
       </c>
-      <c r="H14" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="I14" t="str">
-        <v>3.45</v>
-      </c>
-      <c r="J14" t="str">
-        <v>3.50</v>
-      </c>
-      <c r="K14" t="str">
-        <v>3.57</v>
-      </c>
-      <c r="L14" t="str">
-        <v>3.76</v>
-      </c>
       <c r="M14" t="str">
-        <v>3.98</v>
+        <v>3.92</v>
       </c>
       <c r="N14" t="str">
-        <v>4.22</v>
+        <v>4.16</v>
       </c>
       <c r="O14" t="str">
-        <v>4.80</v>
+        <v>4.73</v>
       </c>
       <c r="P14" t="str">
-        <v>4.85</v>
+        <v>4.78</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" t="str">
-        <v>02/05/2026</v>
+        <v>02/09/2026</v>
       </c>
       <c r="C15" t="str">
         <v>3.72</v>
       </c>
       <c r="D15" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E15" t="str">
-        <v>3.74</v>
+        <v>3.73</v>
       </c>
       <c r="F15" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G15" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="H15" t="str">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="I15" t="str">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="J15" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="K15" t="str">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L15" t="str">
-        <v>3.74</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="str">
         <v>3.97</v>
       </c>
       <c r="N15" t="str">
-        <v>4.21</v>
+        <v>4.22</v>
       </c>
       <c r="O15" t="str">
         <v>4.79</v>
@@ -1220,7 +3615,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" t="str">
-        <v>02/04/2026</v>
+        <v>02/06/2026</v>
       </c>
       <c r="C16" t="str">
         <v>3.72</v>
@@ -1232,89 +3627,89 @@
         <v>3.74</v>
       </c>
       <c r="F16" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="G16" t="str">
         <v>3.70</v>
       </c>
       <c r="H16" t="str">
-        <v>3.62</v>
+        <v>3.59</v>
       </c>
       <c r="I16" t="str">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="K16" t="str">
         <v>3.57</v>
       </c>
-      <c r="K16" t="str">
-        <v>3.64</v>
-      </c>
       <c r="L16" t="str">
-        <v>3.83</v>
+        <v>3.76</v>
       </c>
       <c r="M16" t="str">
-        <v>4.05</v>
+        <v>3.98</v>
       </c>
       <c r="N16" t="str">
-        <v>4.29</v>
+        <v>4.22</v>
       </c>
       <c r="O16" t="str">
-        <v>4.86</v>
+        <v>4.80</v>
       </c>
       <c r="P16" t="str">
-        <v>4.91</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="str">
-        <v>02/03/2026</v>
+        <v>02/05/2026</v>
       </c>
       <c r="C17" t="str">
         <v>3.72</v>
       </c>
       <c r="D17" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E17" t="str">
         <v>3.74</v>
       </c>
       <c r="F17" t="str">
-        <v>3.69</v>
+        <v>3.67</v>
       </c>
       <c r="G17" t="str">
-        <v>3.70</v>
+        <v>3.68</v>
       </c>
       <c r="H17" t="str">
-        <v>3.62</v>
+        <v>3.58</v>
       </c>
       <c r="I17" t="str">
-        <v>3.49</v>
+        <v>3.44</v>
       </c>
       <c r="J17" t="str">
-        <v>3.57</v>
+        <v>3.47</v>
       </c>
       <c r="K17" t="str">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="str">
-        <v>3.83</v>
+        <v>3.74</v>
       </c>
       <c r="M17" t="str">
-        <v>4.04</v>
+        <v>3.97</v>
       </c>
       <c r="N17" t="str">
-        <v>4.28</v>
+        <v>4.21</v>
       </c>
       <c r="O17" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P17" t="str">
         <v>4.85</v>
-      </c>
-      <c r="P17" t="str">
-        <v>4.90</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="str">
-        <v>02/02/2026</v>
+        <v>02/04/2026</v>
       </c>
       <c r="C18" t="str">
         <v>3.72</v>
@@ -1353,174 +3748,174 @@
         <v>4.29</v>
       </c>
       <c r="O18" t="str">
-        <v>4.85</v>
+        <v>4.86</v>
       </c>
       <c r="P18" t="str">
-        <v>4.90</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
-        <v>01/30/2026</v>
+        <v>02/03/2026</v>
       </c>
       <c r="C19" t="str">
         <v>3.72</v>
       </c>
       <c r="D19" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E19" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F19" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G19" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H19" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I19" t="str">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="J19" t="str">
-        <v>3.52</v>
+        <v>3.57</v>
       </c>
       <c r="K19" t="str">
-        <v>3.60</v>
+        <v>3.64</v>
       </c>
       <c r="L19" t="str">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="M19" t="str">
-        <v>4.01</v>
+        <v>4.04</v>
       </c>
       <c r="N19" t="str">
-        <v>4.26</v>
+        <v>4.28</v>
       </c>
       <c r="O19" t="str">
-        <v>4.82</v>
+        <v>4.85</v>
       </c>
       <c r="P19" t="str">
-        <v>4.87</v>
+        <v>4.90</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="str">
-        <v>01/29/2026</v>
+        <v>02/02/2026</v>
       </c>
       <c r="C20" t="str">
         <v>3.72</v>
       </c>
       <c r="D20" t="str">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="E20" t="str">
-        <v>3.75</v>
+        <v>3.74</v>
       </c>
       <c r="F20" t="str">
-        <v>3.67</v>
+        <v>3.69</v>
       </c>
       <c r="G20" t="str">
-        <v>3.69</v>
+        <v>3.70</v>
       </c>
       <c r="H20" t="str">
         <v>3.62</v>
       </c>
       <c r="I20" t="str">
-        <v>3.50</v>
+        <v>3.49</v>
       </c>
       <c r="J20" t="str">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="K20" t="str">
-        <v>3.63</v>
+        <v>3.64</v>
       </c>
       <c r="L20" t="str">
-        <v>3.80</v>
+        <v>3.83</v>
       </c>
       <c r="M20" t="str">
-        <v>4.01</v>
+        <v>4.05</v>
       </c>
       <c r="N20" t="str">
-        <v>4.24</v>
+        <v>4.29</v>
       </c>
       <c r="O20" t="str">
-        <v>4.80</v>
+        <v>4.85</v>
       </c>
       <c r="P20" t="str">
-        <v>4.85</v>
+        <v>4.90</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="str">
-        <v>01/28/2026</v>
+        <v>01/30/2026</v>
       </c>
       <c r="C21" t="str">
-        <v>3.76</v>
+        <v>3.72</v>
       </c>
       <c r="D21" t="str">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="E21" t="str">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="F21" t="str">
-        <v>3.68</v>
+        <v>3.67</v>
       </c>
       <c r="G21" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="H21" t="str">
-        <v>3.63</v>
+        <v>3.61</v>
       </c>
       <c r="I21" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J21" t="str">
         <v>3.52</v>
       </c>
-      <c r="J21" t="str">
-        <v>3.56</v>
-      </c>
       <c r="K21" t="str">
-        <v>3.66</v>
+        <v>3.60</v>
       </c>
       <c r="L21" t="str">
-        <v>3.83</v>
+        <v>3.79</v>
       </c>
       <c r="M21" t="str">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="N21" t="str">
         <v>4.26</v>
       </c>
       <c r="O21" t="str">
-        <v>4.81</v>
+        <v>4.82</v>
       </c>
       <c r="P21" t="str">
-        <v>4.85</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="str">
-        <v>01/27/2026</v>
+        <v>01/29/2026</v>
       </c>
       <c r="C22" t="str">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="D22" t="str">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="E22" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="F22" t="str">
         <v>3.67</v>
       </c>
       <c r="G22" t="str">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="H22" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I22" t="str">
         <v>3.50</v>
@@ -1529,45 +3924,45 @@
         <v>3.53</v>
       </c>
       <c r="K22" t="str">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="L22" t="str">
-        <v>3.81</v>
+        <v>3.80</v>
       </c>
       <c r="M22" t="str">
-        <v>4.03</v>
+        <v>4.01</v>
       </c>
       <c r="N22" t="str">
         <v>4.24</v>
       </c>
       <c r="O22" t="str">
-        <v>4.79</v>
+        <v>4.80</v>
       </c>
       <c r="P22" t="str">
-        <v>4.83</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="str">
-        <v>01/26/2026</v>
+        <v>01/28/2026</v>
       </c>
       <c r="C23" t="str">
-        <v>3.77</v>
+        <v>3.76</v>
       </c>
       <c r="D23" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="E23" t="str">
         <v>3.71</v>
       </c>
-      <c r="E23" t="str">
+      <c r="F23" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G23" t="str">
         <v>3.70</v>
       </c>
-      <c r="F23" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G23" t="str">
-        <v>3.67</v>
-      </c>
       <c r="H23" t="str">
-        <v>3.62</v>
+        <v>3.63</v>
       </c>
       <c r="I23" t="str">
         <v>3.52</v>
@@ -1579,54 +3974,54 @@
         <v>3.66</v>
       </c>
       <c r="L23" t="str">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="M23" t="str">
-        <v>4.02</v>
+        <v>4.05</v>
       </c>
       <c r="N23" t="str">
-        <v>4.22</v>
+        <v>4.26</v>
       </c>
       <c r="O23" t="str">
-        <v>4.75</v>
+        <v>4.81</v>
       </c>
       <c r="P23" t="str">
-        <v>4.80</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="str">
-        <v>01/23/2026</v>
+        <v>01/27/2026</v>
       </c>
       <c r="C24" t="str">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="D24" t="str">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E24" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="F24" t="str">
-        <v>3.70</v>
+        <v>3.67</v>
       </c>
       <c r="G24" t="str">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="H24" t="str">
         <v>3.61</v>
       </c>
       <c r="I24" t="str">
+        <v>3.50</v>
+      </c>
+      <c r="J24" t="str">
         <v>3.53</v>
       </c>
-      <c r="J24" t="str">
-        <v>3.60</v>
-      </c>
       <c r="K24" t="str">
-        <v>3.67</v>
+        <v>3.65</v>
       </c>
       <c r="L24" t="str">
-        <v>3.84</v>
+        <v>3.81</v>
       </c>
       <c r="M24" t="str">
         <v>4.03</v>
@@ -1635,71 +4030,71 @@
         <v>4.24</v>
       </c>
       <c r="O24" t="str">
-        <v>4.78</v>
+        <v>4.79</v>
       </c>
       <c r="P24" t="str">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="str">
-        <v>01/22/2026</v>
+        <v>01/26/2026</v>
       </c>
       <c r="C25" t="str">
-        <v>3.79</v>
+        <v>3.77</v>
       </c>
       <c r="D25" t="str">
         <v>3.71</v>
       </c>
       <c r="E25" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="F25" t="str">
-        <v>3.71</v>
+        <v>3.67</v>
       </c>
       <c r="G25" t="str">
         <v>3.67</v>
       </c>
       <c r="H25" t="str">
-        <v>3.61</v>
+        <v>3.62</v>
       </c>
       <c r="I25" t="str">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="J25" t="str">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="K25" t="str">
-        <v>3.68</v>
+        <v>3.66</v>
       </c>
       <c r="L25" t="str">
-        <v>3.85</v>
+        <v>3.82</v>
       </c>
       <c r="M25" t="str">
-        <v>4.05</v>
+        <v>4.02</v>
       </c>
       <c r="N25" t="str">
-        <v>4.26</v>
+        <v>4.22</v>
       </c>
       <c r="O25" t="str">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="P25" t="str">
-        <v>4.84</v>
+        <v>4.80</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="str">
-        <v>01/21/2026</v>
+        <v>01/23/2026</v>
       </c>
       <c r="C26" t="str">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="D26" t="str">
         <v>3.71</v>
       </c>
       <c r="E26" t="str">
-        <v>3.70</v>
+        <v>3.72</v>
       </c>
       <c r="F26" t="str">
         <v>3.70</v>
@@ -1708,7 +4103,7 @@
         <v>3.67</v>
       </c>
       <c r="H26" t="str">
-        <v>3.62</v>
+        <v>3.61</v>
       </c>
       <c r="I26" t="str">
         <v>3.53</v>
@@ -1717,42 +4112,42 @@
         <v>3.60</v>
       </c>
       <c r="K26" t="str">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="L26" t="str">
-        <v>3.83</v>
+        <v>3.84</v>
       </c>
       <c r="M26" t="str">
-        <v>4.04</v>
+        <v>4.03</v>
       </c>
       <c r="N26" t="str">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="O26" t="str">
+        <v>4.78</v>
+      </c>
+      <c r="P26" t="str">
         <v>4.82</v>
-      </c>
-      <c r="P26" t="str">
-        <v>4.87</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="str">
-        <v>01/20/2026</v>
+        <v>01/22/2026</v>
       </c>
       <c r="C27" t="str">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="D27" t="str">
         <v>3.71</v>
       </c>
       <c r="E27" t="str">
-        <v>3.69</v>
+        <v>3.72</v>
       </c>
       <c r="F27" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="G27" t="str">
-        <v>3.65</v>
+        <v>3.67</v>
       </c>
       <c r="H27" t="str">
         <v>3.61</v>
@@ -1761,292 +4156,292 @@
         <v>3.53</v>
       </c>
       <c r="J27" t="str">
-        <v>3.60</v>
+        <v>3.61</v>
       </c>
       <c r="K27" t="str">
         <v>3.68</v>
       </c>
       <c r="L27" t="str">
-        <v>3.86</v>
+        <v>3.85</v>
       </c>
       <c r="M27" t="str">
-        <v>4.08</v>
+        <v>4.05</v>
       </c>
       <c r="N27" t="str">
-        <v>4.30</v>
+        <v>4.26</v>
       </c>
       <c r="O27" t="str">
-        <v>4.87</v>
+        <v>4.79</v>
       </c>
       <c r="P27" t="str">
-        <v>4.91</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="str">
-        <v>01/16/2026</v>
+        <v>01/21/2026</v>
       </c>
       <c r="C28" t="str">
         <v>3.75</v>
       </c>
       <c r="D28" t="str">
-        <v>3.72</v>
+        <v>3.71</v>
       </c>
       <c r="E28" t="str">
-        <v>3.68</v>
+        <v>3.70</v>
       </c>
       <c r="F28" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G28" t="str">
         <v>3.67</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="I28" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J28" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K28" t="str">
         <v>3.66</v>
       </c>
-      <c r="H28" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I28" t="str">
-        <v>3.55</v>
-      </c>
-      <c r="J28" t="str">
-        <v>3.59</v>
-      </c>
-      <c r="K28" t="str">
-        <v>3.67</v>
-      </c>
       <c r="L28" t="str">
-        <v>3.82</v>
+        <v>3.83</v>
       </c>
       <c r="M28" t="str">
-        <v>4.02</v>
+        <v>4.04</v>
       </c>
       <c r="N28" t="str">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="O28" t="str">
-        <v>4.79</v>
+        <v>4.82</v>
       </c>
       <c r="P28" t="str">
-        <v>4.83</v>
+        <v>4.87</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" t="str">
-        <v>01/15/2026</v>
+        <v>01/20/2026</v>
       </c>
       <c r="C29" t="str">
         <v>3.75</v>
       </c>
       <c r="D29" t="str">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="E29" t="str">
         <v>3.69</v>
       </c>
       <c r="F29" t="str">
+        <v>3.70</v>
+      </c>
+      <c r="G29" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="H29" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="I29" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="J29" t="str">
+        <v>3.60</v>
+      </c>
+      <c r="K29" t="str">
         <v>3.68</v>
       </c>
-      <c r="G29" t="str">
-        <v>3.66</v>
-      </c>
-      <c r="H29" t="str">
-        <v>3.60</v>
-      </c>
-      <c r="I29" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="J29" t="str">
-        <v>3.56</v>
-      </c>
-      <c r="K29" t="str">
-        <v>3.62</v>
-      </c>
       <c r="L29" t="str">
-        <v>3.77</v>
+        <v>3.86</v>
       </c>
       <c r="M29" t="str">
-        <v>3.96</v>
+        <v>4.08</v>
       </c>
       <c r="N29" t="str">
-        <v>4.17</v>
+        <v>4.30</v>
       </c>
       <c r="O29" t="str">
-        <v>4.74</v>
+        <v>4.87</v>
       </c>
       <c r="P29" t="str">
-        <v>4.79</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="str">
-        <v>01/14/2026</v>
+        <v>01/16/2026</v>
       </c>
       <c r="C30" t="str">
+        <v>3.75</v>
+      </c>
+      <c r="D30" t="str">
         <v>3.72</v>
       </c>
-      <c r="D30" t="str">
-        <v>3.71</v>
-      </c>
       <c r="E30" t="str">
-        <v>3.66</v>
+        <v>3.68</v>
       </c>
       <c r="F30" t="str">
         <v>3.67</v>
       </c>
       <c r="G30" t="str">
-        <v>3.65</v>
+        <v>3.66</v>
       </c>
       <c r="H30" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="I30" t="str">
-        <v>3.50</v>
+        <v>3.55</v>
       </c>
       <c r="J30" t="str">
-        <v>3.51</v>
+        <v>3.59</v>
       </c>
       <c r="K30" t="str">
-        <v>3.56</v>
+        <v>3.67</v>
       </c>
       <c r="L30" t="str">
-        <v>3.72</v>
+        <v>3.82</v>
       </c>
       <c r="M30" t="str">
-        <v>3.92</v>
+        <v>4.02</v>
       </c>
       <c r="N30" t="str">
-        <v>4.15</v>
+        <v>4.24</v>
       </c>
       <c r="O30" t="str">
-        <v>4.73</v>
+        <v>4.79</v>
       </c>
       <c r="P30" t="str">
-        <v>4.79</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="str">
-        <v>01/13/2026</v>
+        <v>01/15/2026</v>
       </c>
       <c r="C31" t="str">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="D31" t="str">
-        <v>3.72</v>
+        <v>3.73</v>
       </c>
       <c r="E31" t="str">
+        <v>3.69</v>
+      </c>
+      <c r="F31" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="G31" t="str">
         <v>3.66</v>
       </c>
-      <c r="F31" t="str">
-        <v>3.67</v>
-      </c>
-      <c r="G31" t="str">
-        <v>3.63</v>
-      </c>
       <c r="H31" t="str">
-        <v>3.59</v>
+        <v>3.60</v>
       </c>
       <c r="I31" t="str">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="J31" t="str">
-        <v>3.53</v>
+        <v>3.56</v>
       </c>
       <c r="K31" t="str">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="L31" t="str">
-        <v>3.75</v>
+        <v>3.77</v>
       </c>
       <c r="M31" t="str">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="N31" t="str">
-        <v>4.18</v>
+        <v>4.17</v>
       </c>
       <c r="O31" t="str">
-        <v>4.77</v>
+        <v>4.74</v>
       </c>
       <c r="P31" t="str">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="str">
-        <v>01/12/2026</v>
+        <v>01/14/2026</v>
       </c>
       <c r="C32" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D32" t="str">
         <v>3.71</v>
       </c>
-      <c r="D32" t="str">
-        <v>3.68</v>
-      </c>
       <c r="E32" t="str">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="F32" t="str">
         <v>3.67</v>
       </c>
       <c r="G32" t="str">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="H32" t="str">
         <v>3.58</v>
       </c>
       <c r="I32" t="str">
-        <v>3.53</v>
+        <v>3.50</v>
       </c>
       <c r="J32" t="str">
-        <v>3.54</v>
+        <v>3.51</v>
       </c>
       <c r="K32" t="str">
-        <v>3.59</v>
+        <v>3.56</v>
       </c>
       <c r="L32" t="str">
-        <v>3.77</v>
+        <v>3.72</v>
       </c>
       <c r="M32" t="str">
-        <v>3.97</v>
+        <v>3.92</v>
       </c>
       <c r="N32" t="str">
-        <v>4.19</v>
+        <v>4.15</v>
       </c>
       <c r="O32" t="str">
-        <v>4.78</v>
+        <v>4.73</v>
       </c>
       <c r="P32" t="str">
-        <v>4.83</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="str">
-        <v>01/09/2026</v>
+        <v>01/13/2026</v>
       </c>
       <c r="C33" t="str">
-        <v>3.70</v>
+        <v>3.72</v>
       </c>
       <c r="D33" t="str">
-        <v>3.68</v>
+        <v>3.72</v>
       </c>
       <c r="E33" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F33" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G33" t="str">
         <v>3.63</v>
       </c>
-      <c r="F33" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="G33" t="str">
-        <v>3.62</v>
-      </c>
       <c r="H33" t="str">
+        <v>3.59</v>
+      </c>
+      <c r="I33" t="str">
+        <v>3.51</v>
+      </c>
+      <c r="J33" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="K33" t="str">
         <v>3.57</v>
-      </c>
-      <c r="I33" t="str">
-        <v>3.52</v>
-      </c>
-      <c r="J33" t="str">
-        <v>3.54</v>
-      </c>
-      <c r="K33" t="str">
-        <v>3.59</v>
       </c>
       <c r="L33" t="str">
         <v>3.75</v>
@@ -2058,98 +4453,98 @@
         <v>4.18</v>
       </c>
       <c r="O33" t="str">
-        <v>4.76</v>
+        <v>4.77</v>
       </c>
       <c r="P33" t="str">
-        <v>4.82</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="str">
-        <v>01/08/2026</v>
+        <v>01/12/2026</v>
       </c>
       <c r="C34" t="str">
-        <v>3.70</v>
+        <v>3.71</v>
       </c>
       <c r="D34" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E34" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F34" t="str">
+        <v>3.67</v>
+      </c>
+      <c r="G34" t="str">
         <v>3.63</v>
       </c>
-      <c r="F34" t="str">
-        <v>3.62</v>
-      </c>
-      <c r="G34" t="str">
-        <v>3.60</v>
-      </c>
       <c r="H34" t="str">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="I34" t="str">
-        <v>3.48</v>
+        <v>3.53</v>
       </c>
       <c r="J34" t="str">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="K34" t="str">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="L34" t="str">
-        <v>3.74</v>
+        <v>3.77</v>
       </c>
       <c r="M34" t="str">
-        <v>3.95</v>
+        <v>3.97</v>
       </c>
       <c r="N34" t="str">
         <v>4.19</v>
       </c>
       <c r="O34" t="str">
-        <v>4.79</v>
+        <v>4.78</v>
       </c>
       <c r="P34" t="str">
-        <v>4.85</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="str">
-        <v>01/07/2026</v>
+        <v>01/09/2026</v>
       </c>
       <c r="C35" t="str">
         <v>3.70</v>
       </c>
       <c r="D35" t="str">
-        <v>3.69</v>
+        <v>3.68</v>
       </c>
       <c r="E35" t="str">
-        <v>3.60</v>
+        <v>3.63</v>
       </c>
       <c r="F35" t="str">
         <v>3.62</v>
       </c>
       <c r="G35" t="str">
-        <v>3.60</v>
+        <v>3.62</v>
       </c>
       <c r="H35" t="str">
-        <v>3.56</v>
+        <v>3.57</v>
       </c>
       <c r="I35" t="str">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="J35" t="str">
-        <v>3.47</v>
+        <v>3.54</v>
       </c>
       <c r="K35" t="str">
-        <v>3.53</v>
+        <v>3.59</v>
       </c>
       <c r="L35" t="str">
-        <v>3.70</v>
+        <v>3.75</v>
       </c>
       <c r="M35" t="str">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="N35" t="str">
-        <v>4.15</v>
+        <v>4.18</v>
       </c>
       <c r="O35" t="str">
         <v>4.76</v>
@@ -2160,22 +4555,22 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="str">
-        <v>01/06/2026</v>
+        <v>01/08/2026</v>
       </c>
       <c r="C36" t="str">
         <v>3.70</v>
       </c>
       <c r="D36" t="str">
-        <v>3.70</v>
+        <v>3.69</v>
       </c>
       <c r="E36" t="str">
-        <v>3.61</v>
+        <v>3.63</v>
       </c>
       <c r="F36" t="str">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="G36" t="str">
-        <v>3.58</v>
+        <v>3.60</v>
       </c>
       <c r="H36" t="str">
         <v>3.56</v>
@@ -2184,118 +4579,212 @@
         <v>3.48</v>
       </c>
       <c r="J36" t="str">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="K36" t="str">
-        <v>3.54</v>
+        <v>3.56</v>
       </c>
       <c r="L36" t="str">
-        <v>3.72</v>
+        <v>3.74</v>
       </c>
       <c r="M36" t="str">
-        <v>3.93</v>
+        <v>3.95</v>
       </c>
       <c r="N36" t="str">
-        <v>4.18</v>
+        <v>4.19</v>
       </c>
       <c r="O36" t="str">
-        <v>4.80</v>
+        <v>4.79</v>
       </c>
       <c r="P36" t="str">
-        <v>4.86</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" t="str">
-        <v>01/05/2026</v>
+        <v>01/07/2026</v>
       </c>
       <c r="C37" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="D37" t="str">
-        <v>3.68</v>
+        <v>3.69</v>
       </c>
       <c r="E37" t="str">
-        <v>3.64</v>
+        <v>3.60</v>
       </c>
       <c r="F37" t="str">
-        <v>3.64</v>
+        <v>3.62</v>
       </c>
       <c r="G37" t="str">
-        <v>3.61</v>
+        <v>3.60</v>
       </c>
       <c r="H37" t="str">
-        <v>3.57</v>
+        <v>3.56</v>
       </c>
       <c r="I37" t="str">
+        <v>3.48</v>
+      </c>
+      <c r="J37" t="str">
         <v>3.47</v>
-      </c>
-      <c r="J37" t="str">
-        <v>3.46</v>
       </c>
       <c r="K37" t="str">
         <v>3.53</v>
       </c>
       <c r="L37" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="M37" t="str">
-        <v>3.92</v>
+        <v>3.91</v>
       </c>
       <c r="N37" t="str">
-        <v>4.17</v>
+        <v>4.15</v>
       </c>
       <c r="O37" t="str">
-        <v>4.79</v>
+        <v>4.76</v>
       </c>
       <c r="P37" t="str">
-        <v>4.85</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" t="str">
-        <v>01/02/2026</v>
+        <v>01/06/2026</v>
       </c>
       <c r="C38" t="str">
-        <v>3.72</v>
+        <v>3.70</v>
       </c>
       <c r="D38" t="str">
-        <v>3.71</v>
+        <v>3.70</v>
       </c>
       <c r="E38" t="str">
-        <v>3.66</v>
+        <v>3.61</v>
       </c>
       <c r="F38" t="str">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="G38" t="str">
-        <v>3.62</v>
+        <v>3.58</v>
       </c>
       <c r="H38" t="str">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="I38" t="str">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="J38" t="str">
         <v>3.47</v>
       </c>
       <c r="K38" t="str">
+        <v>3.54</v>
+      </c>
+      <c r="L38" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="M38" t="str">
+        <v>3.93</v>
+      </c>
+      <c r="N38" t="str">
+        <v>4.18</v>
+      </c>
+      <c r="O38" t="str">
+        <v>4.80</v>
+      </c>
+      <c r="P38" t="str">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B39" t="str">
+        <v>01/05/2026</v>
+      </c>
+      <c r="C39" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="D39" t="str">
+        <v>3.68</v>
+      </c>
+      <c r="E39" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="F39" t="str">
+        <v>3.64</v>
+      </c>
+      <c r="G39" t="str">
+        <v>3.61</v>
+      </c>
+      <c r="H39" t="str">
+        <v>3.57</v>
+      </c>
+      <c r="I39" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J39" t="str">
+        <v>3.46</v>
+      </c>
+      <c r="K39" t="str">
+        <v>3.53</v>
+      </c>
+      <c r="L39" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="M39" t="str">
+        <v>3.92</v>
+      </c>
+      <c r="N39" t="str">
+        <v>4.17</v>
+      </c>
+      <c r="O39" t="str">
+        <v>4.79</v>
+      </c>
+      <c r="P39" t="str">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B40" t="str">
+        <v>01/02/2026</v>
+      </c>
+      <c r="C40" t="str">
+        <v>3.72</v>
+      </c>
+      <c r="D40" t="str">
+        <v>3.71</v>
+      </c>
+      <c r="E40" t="str">
+        <v>3.66</v>
+      </c>
+      <c r="F40" t="str">
+        <v>3.65</v>
+      </c>
+      <c r="G40" t="str">
+        <v>3.62</v>
+      </c>
+      <c r="H40" t="str">
+        <v>3.58</v>
+      </c>
+      <c r="I40" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="J40" t="str">
+        <v>3.47</v>
+      </c>
+      <c r="K40" t="str">
         <v>3.55</v>
       </c>
-      <c r="L38" t="str">
+      <c r="L40" t="str">
         <v>3.74</v>
       </c>
-      <c r="M38" t="str">
+      <c r="M40" t="str">
         <v>3.95</v>
       </c>
-      <c r="N38" t="str">
+      <c r="N40" t="str">
         <v>4.19</v>
       </c>
-      <c r="O38" t="str">
+      <c r="O40" t="str">
         <v>4.81</v>
       </c>
-      <c r="P38" t="str">
+      <c r="P40" t="str">
         <v>4.86</v>
       </c>
     </row>
@@ -2309,16 +4798,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E2F35-77D5-4361-8DFB-2603DE31162A}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -2348,22 +4836,19 @@
         <v>0.05</v>
       </c>
       <c r="C4" s="2">
-        <f>B4*1.01</f>
-        <v>5.0500000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:E4" si="0">C4*1.01</f>
-        <v>5.1005000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>5.151505E-2</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" cm="1">
+      <c r="B5" s="8" cm="1">
         <f t="array" ref="B5">_xll.\FI.INSTRUMENT(B3:E3,B4:E4)</f>
-        <v>2349076000000</v>
+        <v>2554472721104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2386,80 +4871,80 @@
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>5.0500000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D7">
-        <v>5.1005000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E7">
-        <v>5.151505E-2</v>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>0.5</v>
+      <c r="B10" s="8" cm="1">
+        <f t="array" ref="B10">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B8,B9)</f>
+        <v>2554644920144</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" cm="1">
-        <f t="array" ref="B11">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(B9,B10)</f>
-        <v>2349076109584</v>
+        <f t="array" ref="B11:B12">_xll.FI.INSTRUMENT(B10)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B12" cm="1">
-        <f t="array" ref="B12:B13">_xll.FI.INSTRUMENT(B11)</f>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="8" cm="1">
+        <f t="array" ref="B13">_xll.\FI.INSTRUMENT.BOND(2,0.05,2)</f>
+        <v>2554640890144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" cm="1">
+        <f t="array" ref="B14:E15">_xll.FI.INSTRUMENT(B13)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13">
-        <v>0.5</v>
+      <c r="D14">
+        <v>1.5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" cm="1">
-        <f t="array" ref="B15">_xll.\FI.INSTRUMENT.BOND(2,0.05,2)</f>
-        <v>2348474432256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" cm="1">
-        <f t="array" ref="B16:E17">_xll.FI.INSTRUMENT(B15)</f>
-        <v>0.5</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>1.5</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17">
+      <c r="B15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C17">
+      <c r="C15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D17">
+      <c r="D15">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E17">
+      <c r="E15">
         <v>1.0249999999999999</v>
       </c>
     </row>
@@ -2471,7 +4956,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F354A35E-C248-4AE4-A2E8-7948ED4AA090}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2479,15 +4964,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2500,40 +4985,30 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>0.05</v>
       </c>
       <c r="C4">
-        <f>B4*1.01</f>
-        <v>5.0500000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:F4" si="0">C4*1.01</f>
-        <v>5.1005000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>5.151505E-2</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>5.2030200499999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" cm="1">
-        <f t="array" ref="B5">_xll.\FI.CURVE.PWFLAT(B3:F3,B4:F4)</f>
-        <v>2349076113184</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" cm="1">
+        <f t="array" ref="B5">_xll.\FI.CURVE.PWFLAT(B3:E3,B4:E4)</f>
+        <v>2556906811216</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" cm="1">
-        <f t="array" ref="B6:F7">_xll.FI.CURVE.PWFLAT(B5)</f>
+        <f t="array" ref="B6:E7">_xll.FI.CURVE.PWFLAT(B5)</f>
         <v>1</v>
       </c>
       <c r="C6">
@@ -2545,25 +5020,19 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.05</v>
       </c>
       <c r="C7">
-        <v>5.0500000000000003E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D7">
-        <v>5.1005000000000002E-2</v>
+        <v>0.05</v>
       </c>
       <c r="E7">
-        <v>5.151505E-2</v>
-      </c>
-      <c r="F7">
-        <v>5.2030200499999998E-2</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -2573,18 +5042,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2E5B4B-30B9-4C78-A319-DEE69FDAA7AA}">
-  <dimension ref="B2:L74"/>
+  <dimension ref="B2:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="3" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.9140625" customWidth="1"/>
+    <col min="9" max="9" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.58203125" customWidth="1"/>
+    <col min="16" max="20" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.35">
       <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
@@ -2597,18 +5075,18 @@
       <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="e" cm="1">
-        <f t="array" aca="1" ref="I2" ca="1">\FI.CURVE.PWFLAT.BOOTSTRAP(E3:E16,F3:F16)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="L2" s="8" cm="1">
+        <f t="array" ref="L2">_xll.\FI.CURVE.PWFLAT.BOOTSTRAP(_xlfn.ANCHORARRAY(G3),_xlfn.ANCHORARRAY( G4))</f>
+        <v>2556918852832</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2620,16 +5098,58 @@
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="E3">
-        <f>1-D3*C3/360</f>
-        <v>0.99999141203703701</v>
+        <f>1-D3*C3</f>
+        <v>0.99690833333333329</v>
       </c>
       <c r="F3" s="8" cm="1">
-        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3,D3)</f>
-        <v>2349076114336</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="array" ref="F3">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C3)</f>
+        <v>2556918849232</v>
+      </c>
+      <c r="G3" s="9" cm="1">
+        <f t="array" ref="G3:T3">TRANSPOSE(F3:F16)</f>
+        <v>2556918849232</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2556919448992</v>
+      </c>
+      <c r="I3" s="9">
+        <v>2556919450432</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2556919452016</v>
+      </c>
+      <c r="K3" s="10">
+        <v>2556919446976</v>
+      </c>
+      <c r="L3" s="10">
+        <v>2556919451440</v>
+      </c>
+      <c r="M3" s="10">
+        <v>2556919455184</v>
+      </c>
+      <c r="N3" s="10">
+        <v>2554400230928</v>
+      </c>
+      <c r="O3" s="10">
+        <v>2554400228848</v>
+      </c>
+      <c r="P3" s="10">
+        <v>2554400229968</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2554400229168</v>
+      </c>
+      <c r="R3" s="10">
+        <v>2554400228048</v>
+      </c>
+      <c r="S3" s="10">
+        <v>2554400228688</v>
+      </c>
+      <c r="T3" s="10">
+        <v>2554400227248</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2641,18 +5161,58 @@
         <v>3.7400000000000003E-2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">1-D4*C4/360</f>
-        <v>0.99998701388888889</v>
+        <f t="shared" ref="E4:E9" si="0">1-D4*C4</f>
+        <v>0.99532500000000002</v>
       </c>
       <c r="F4" s="8" cm="1">
-        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4,D4)</f>
-        <v>2349076101232</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="array" ref="F4">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C4)</f>
+        <v>2556919448992</v>
+      </c>
+      <c r="G4" s="9" cm="1">
+        <f t="array" ref="G4:T4">TRANSPOSE(E3:E16)</f>
+        <v>0.99690833333333329</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.99532500000000002</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.99378333333333335</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.99075000000000002</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.98766666666666669</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="M4" s="10">
+        <v>0.96509999999999996</v>
+      </c>
+      <c r="N4" s="10">
+        <v>1</v>
+      </c>
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
+      <c r="P4" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>1</v>
+      </c>
+      <c r="R4" s="10">
+        <v>1</v>
+      </c>
+      <c r="S4" s="10">
+        <v>1</v>
+      </c>
+      <c r="T4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2665,23 +5225,65 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.99998273148148153</v>
+        <v>0.99378333333333335</v>
       </c>
       <c r="F5" s="8" cm="1">
-        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5,D5)</f>
-        <v>2349075988048</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="array" ref="F5">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C5)</f>
+        <v>2556919450432</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" cm="1">
+        <f t="array" ref="P5:AC6">_xll.FI.CURVE.PWFLAT(L2)</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.125</v>
+      </c>
+      <c r="R5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S5">
+        <v>0.25</v>
+      </c>
+      <c r="T5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>7</v>
+      </c>
+      <c r="AA5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -2694,25 +5296,67 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.99997430555555555</v>
+        <v>0.99075000000000002</v>
       </c>
       <c r="F6" s="8" cm="1">
-        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6,D6)</f>
-        <v>2349076113328</v>
-      </c>
-      <c r="H6">
-        <v>0.1</v>
-      </c>
-      <c r="I6" cm="1">
-        <f t="array" ref="I6:I74">_xlfn.VSTACK(_xlfn.SEQUENCE(1/H6,1,0,H6),_xlfn.SEQUENCE(1+29/H7,1,1,H7))</f>
-        <v>0</v>
-      </c>
-      <c r="J6" t="e" cm="1">
-        <f t="array" ref="J6">_xll.FI.CURVE.SPOT($J$2,I6)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="array" ref="F6">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C6)</f>
+        <v>2556919452016</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="K6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6">
+        <v>3.715831656820115E-2</v>
+      </c>
+      <c r="Q6">
+        <v>3.814664017116199E-2</v>
+      </c>
+      <c r="R6">
+        <v>3.7202205769418122E-2</v>
+      </c>
+      <c r="S6">
+        <v>3.6683596176462913E-2</v>
+      </c>
+      <c r="T6">
+        <v>3.7404183748547974E-2</v>
+      </c>
+      <c r="U6">
+        <v>3.4520470666365488E-2</v>
+      </c>
+      <c r="V6">
+        <v>3.4720691752069432E-2</v>
+      </c>
+      <c r="W6">
+        <v>3.2650364029551147E-2</v>
+      </c>
+      <c r="X6">
+        <v>3.5011501821605513E-2</v>
+      </c>
+      <c r="Y6">
+        <v>3.8481716185164432E-2</v>
+      </c>
+      <c r="Z6">
+        <v>4.3399267121304493E-2</v>
+      </c>
+      <c r="AA6">
+        <v>4.6467732453357329E-2</v>
+      </c>
+      <c r="AB6">
+        <v>5.4141810905383524E-2</v>
+      </c>
+      <c r="AC6">
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -2725,20 +5369,31 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.99996574074074074</v>
+        <v>0.98766666666666669</v>
       </c>
       <c r="F7" s="8" cm="1">
-        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7,D7)</f>
-        <v>2349075991072</v>
-      </c>
-      <c r="H7">
-        <v>0.5</v>
-      </c>
-      <c r="I7">
+        <f t="array" ref="F7">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C7)</f>
+        <v>2556919446976</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="J7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="K7" cm="1">
+        <f t="array" ref="K7:K75">_xlfn.VSTACK(_xlfn.SEQUENCE(1/J7,1,0,J7),_xlfn.SEQUENCE(1+29/J8,1,1,J8))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" cm="1">
+        <f t="array" ref="L7">_xll.FI.CURVE.SPOT($L$2,K7)</f>
+        <v>3.715831656820115E-2</v>
+      </c>
+      <c r="M7" cm="1">
+        <f t="array" ref="M7">_xll.FI.CURVE.FORWARD($L$2,K7)</f>
+        <v>3.715831656820115E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -2751,17 +5406,30 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.99995000000000001</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="F8" s="8" cm="1">
-        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8,D8)</f>
-        <v>2349076095904</v>
-      </c>
-      <c r="I8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="array" ref="F8">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C8)</f>
+        <v>2556919451440</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>0.1</v>
+      </c>
+      <c r="L8" cm="1">
+        <f t="array" ref="L8">_xll.FI.CURVE.SPOT($L$2,K8)</f>
+        <v>3.7323037168694624E-2</v>
+      </c>
+      <c r="M8" cm="1">
+        <f t="array" ref="M8">_xll.FI.CURVE.FORWARD($L$2,K8)</f>
+        <v>3.814664017116199E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2773,20 +5441,27 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.99990305555555559</v>
+        <v>0.96509999999999996</v>
       </c>
       <c r="F9" s="8" cm="1">
-        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9,D9)</f>
-        <v>2349076113904</v>
-      </c>
-      <c r="I9">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+        <f t="array" ref="F9">_xll.\FI.INSTRUMENT.ZERO_COUPON_BOND(C9)</f>
+        <v>2556919455184</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="K9">
+        <v>0.2</v>
+      </c>
+      <c r="L9" cm="1">
+        <f t="array" ref="L9">_xll.FI.CURVE.SPOT($L$2,K9)</f>
+        <v>3.7294240837115154E-2</v>
+      </c>
+      <c r="M9" cm="1">
+        <f t="array" ref="M9">_xll.FI.CURVE.FORWARD($L$2,K9)</f>
+        <v>3.6683596176462913E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2801,13 +5476,26 @@
       </c>
       <c r="F10" s="8" cm="1">
         <f t="array" ref="F10">_xll.\FI.INSTRUMENT.BOND(C10,D10,1)</f>
-        <v>2348474432096</v>
-      </c>
-      <c r="I10">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+        <v>2554400230928</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="K10">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="L10" cm="1">
+        <f t="array" ref="L10">_xll.FI.CURVE.SPOT($L$2,K10)</f>
+        <v>3.721079054557859E-2</v>
+      </c>
+      <c r="M10" cm="1">
+        <f t="array" ref="M10">_xll.FI.CURVE.FORWARD($L$2,K10)</f>
+        <v>3.7404183748547974E-2</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
@@ -2822,13 +5510,23 @@
       </c>
       <c r="F11" s="8" cm="1">
         <f t="array" ref="F11">_xll.\FI.INSTRUMENT.BOND(C11,D11,1)</f>
-        <v>2348474431936</v>
-      </c>
-      <c r="I11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+        <v>2554400228848</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="K11">
+        <v>0.4</v>
+      </c>
+      <c r="L11" cm="1">
+        <f t="array" ref="L11">_xll.FI.CURVE.SPOT($L$2,K11)</f>
+        <v>3.6778519999290514E-2</v>
+      </c>
+      <c r="M11" cm="1">
+        <f t="array" ref="M11">_xll.FI.CURVE.FORWARD($L$2,K11)</f>
+        <v>3.4520470666365488E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
@@ -2843,13 +5541,23 @@
       </c>
       <c r="F12" s="8" cm="1">
         <f t="array" ref="F12">_xll.\FI.INSTRUMENT.BOND(C12,D12,1)</f>
-        <v>2348474434016</v>
-      </c>
-      <c r="I12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+        <v>2554400229968</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="K12">
+        <v>0.5</v>
+      </c>
+      <c r="L12" cm="1">
+        <f t="array" ref="L12">_xll.FI.CURVE.SPOT($L$2,K12)</f>
+        <v>3.632691013270551E-2</v>
+      </c>
+      <c r="M12" cm="1">
+        <f t="array" ref="M12">_xll.FI.CURVE.FORWARD($L$2,K12)</f>
+        <v>3.4520470666365488E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
@@ -2864,13 +5572,23 @@
       </c>
       <c r="F13" s="8" cm="1">
         <f t="array" ref="F13">_xll.\FI.INSTRUMENT.BOND(C13,D13,1)</f>
-        <v>2348282137904</v>
-      </c>
-      <c r="I13">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+        <v>2554400229168</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="K13">
+        <v>0.6</v>
+      </c>
+      <c r="L13" cm="1">
+        <f t="array" ref="L13">_xll.FI.CURVE.SPOT($L$2,K13)</f>
+        <v>3.6059207069266165E-2</v>
+      </c>
+      <c r="M13" cm="1">
+        <f t="array" ref="M13">_xll.FI.CURVE.FORWARD($L$2,K13)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
@@ -2885,13 +5603,23 @@
       </c>
       <c r="F14" s="8" cm="1">
         <f t="array" ref="F14">_xll.\FI.INSTRUMENT.BOND(C14,D14,1)</f>
-        <v>2348474431136</v>
-      </c>
-      <c r="I14">
-        <v>0.79999999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+        <v>2554400228048</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="K14">
+        <v>0.7</v>
+      </c>
+      <c r="L14" cm="1">
+        <f t="array" ref="L14">_xll.FI.CURVE.SPOT($L$2,K14)</f>
+        <v>3.5867990595380914E-2</v>
+      </c>
+      <c r="M14" cm="1">
+        <f t="array" ref="M14">_xll.FI.CURVE.FORWARD($L$2,K14)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2906,13 +5634,23 @@
       </c>
       <c r="F15" s="8" cm="1">
         <f t="array" ref="F15">_xll.\FI.INSTRUMENT.BOND(C15,D15,1)</f>
-        <v>2348474433696</v>
-      </c>
-      <c r="I15">
-        <v>0.89999999999999991</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+        <v>2554400228688</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="K15">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="L15" cm="1">
+        <f t="array" ref="L15">_xll.FI.CURVE.SPOT($L$2,K15)</f>
+        <v>3.5724578239966977E-2</v>
+      </c>
+      <c r="M15" cm="1">
+        <f t="array" ref="M15">_xll.FI.CURVE.FORWARD($L$2,K15)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -2927,300 +5665,787 @@
       </c>
       <c r="F16" s="8" cm="1">
         <f t="array" ref="F16">_xll.\FI.INSTRUMENT.BOND(C16,D16,1)</f>
-        <v>2348474436896</v>
-      </c>
-      <c r="I16">
+        <v>2554400227248</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="K16">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="L16" cm="1">
+        <f t="array" ref="L16">_xll.FI.CURVE.SPOT($L$2,K16)</f>
+        <v>3.5613035296867254E-2</v>
+      </c>
+      <c r="M16" cm="1">
+        <f t="array" ref="M16">_xll.FI.CURVE.FORWARD($L$2,K16)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I17">
+      <c r="L17" cm="1">
+        <f t="array" ref="L17">_xll.FI.CURVE.SPOT($L$2,K17)</f>
+        <v>3.5523800942387468E-2</v>
+      </c>
+      <c r="M17" cm="1">
+        <f t="array" ref="M17">_xll.FI.CURVE.FORWARD($L$2,K17)</f>
+        <v>3.4720691752069432E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K18">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I18">
+      <c r="L18" cm="1">
+        <f t="array" ref="L18">_xll.FI.CURVE.SPOT($L$2,K18)</f>
+        <v>3.4565988638108697E-2</v>
+      </c>
+      <c r="M18" cm="1">
+        <f t="array" ref="M18">_xll.FI.CURVE.FORWARD($L$2,K18)</f>
+        <v>3.2650364029551147E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K19">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I19">
+      <c r="L19" cm="1">
+        <f t="array" ref="L19">_xll.FI.CURVE.SPOT($L$2,K19)</f>
+        <v>3.4087082485969311E-2</v>
+      </c>
+      <c r="M19" cm="1">
+        <f t="array" ref="M19">_xll.FI.CURVE.FORWARD($L$2,K19)</f>
+        <v>3.2650364029551147E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K20">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I20">
+      <c r="L20" cm="1">
+        <f t="array" ref="L20">_xll.FI.CURVE.SPOT($L$2,K20)</f>
+        <v>3.4271966353096553E-2</v>
+      </c>
+      <c r="M20" cm="1">
+        <f t="array" ref="M20">_xll.FI.CURVE.FORWARD($L$2,K20)</f>
+        <v>3.5011501821605513E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K21">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I21">
+      <c r="L21" cm="1">
+        <f t="array" ref="L21">_xll.FI.CURVE.SPOT($L$2,K21)</f>
+        <v>3.4395222264514712E-2</v>
+      </c>
+      <c r="M21" cm="1">
+        <f t="array" ref="M21">_xll.FI.CURVE.FORWARD($L$2,K21)</f>
+        <v>3.5011501821605513E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K22">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I22">
+      <c r="L22" cm="1">
+        <f t="array" ref="L22">_xll.FI.CURVE.SPOT($L$2,K22)</f>
+        <v>3.4979007110321814E-2</v>
+      </c>
+      <c r="M22" cm="1">
+        <f t="array" ref="M22">_xll.FI.CURVE.FORWARD($L$2,K22)</f>
+        <v>3.8481716185164432E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K23">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I23">
+      <c r="L23" cm="1">
+        <f t="array" ref="L23">_xll.FI.CURVE.SPOT($L$2,K23)</f>
+        <v>3.5416845744677142E-2</v>
+      </c>
+      <c r="M23" cm="1">
+        <f t="array" ref="M23">_xll.FI.CURVE.FORWARD($L$2,K23)</f>
+        <v>3.8481716185164432E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K24">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I24">
+      <c r="L24" cm="1">
+        <f t="array" ref="L24">_xll.FI.CURVE.SPOT($L$2,K24)</f>
+        <v>3.5757386904731278E-2</v>
+      </c>
+      <c r="M24" cm="1">
+        <f t="array" ref="M24">_xll.FI.CURVE.FORWARD($L$2,K24)</f>
+        <v>3.8481716185164432E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K25">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I25">
+      <c r="L25" cm="1">
+        <f t="array" ref="L25">_xll.FI.CURVE.SPOT($L$2,K25)</f>
+        <v>3.6029819832774604E-2</v>
+      </c>
+      <c r="M25" cm="1">
+        <f t="array" ref="M25">_xll.FI.CURVE.FORWARD($L$2,K25)</f>
+        <v>3.8481716185164432E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K26">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I26">
+      <c r="L26" cm="1">
+        <f t="array" ref="L26">_xll.FI.CURVE.SPOT($L$2,K26)</f>
+        <v>3.6699769586277319E-2</v>
+      </c>
+      <c r="M26" cm="1">
+        <f t="array" ref="M26">_xll.FI.CURVE.FORWARD($L$2,K26)</f>
+        <v>4.3399267121304493E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K27">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I27">
+      <c r="L27" cm="1">
+        <f t="array" ref="L27">_xll.FI.CURVE.SPOT($L$2,K27)</f>
+        <v>3.725806104752958E-2</v>
+      </c>
+      <c r="M27" cm="1">
+        <f t="array" ref="M27">_xll.FI.CURVE.FORWARD($L$2,K27)</f>
+        <v>4.3399267121304493E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K28">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I28">
+      <c r="L28" cm="1">
+        <f t="array" ref="L28">_xll.FI.CURVE.SPOT($L$2,K28)</f>
+        <v>3.7730461514743033E-2</v>
+      </c>
+      <c r="M28" cm="1">
+        <f t="array" ref="M28">_xll.FI.CURVE.FORWARD($L$2,K28)</f>
+        <v>4.3399267121304493E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K29">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I29">
+      <c r="L29" cm="1">
+        <f t="array" ref="L29">_xll.FI.CURVE.SPOT($L$2,K29)</f>
+        <v>3.8135376200925997E-2</v>
+      </c>
+      <c r="M29" cm="1">
+        <f t="array" ref="M29">_xll.FI.CURVE.FORWARD($L$2,K29)</f>
+        <v>4.3399267121304493E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K30">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I30">
+      <c r="L30" cm="1">
+        <f t="array" ref="L30">_xll.FI.CURVE.SPOT($L$2,K30)</f>
+        <v>3.8690866617754754E-2</v>
+      </c>
+      <c r="M30" cm="1">
+        <f t="array" ref="M30">_xll.FI.CURVE.FORWARD($L$2,K30)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K31">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I31">
+      <c r="L31" cm="1">
+        <f t="array" ref="L31">_xll.FI.CURVE.SPOT($L$2,K31)</f>
+        <v>3.9176920732479914E-2</v>
+      </c>
+      <c r="M31" cm="1">
+        <f t="array" ref="M31">_xll.FI.CURVE.FORWARD($L$2,K31)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K32">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I32">
+      <c r="L32" cm="1">
+        <f t="array" ref="L32">_xll.FI.CURVE.SPOT($L$2,K32)</f>
+        <v>3.9605792010178588E-2</v>
+      </c>
+      <c r="M32" cm="1">
+        <f t="array" ref="M32">_xll.FI.CURVE.FORWARD($L$2,K32)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K33">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I33">
+      <c r="L33" cm="1">
+        <f t="array" ref="L33">_xll.FI.CURVE.SPOT($L$2,K33)</f>
+        <v>3.9987010923688518E-2</v>
+      </c>
+      <c r="M33" cm="1">
+        <f t="array" ref="M33">_xll.FI.CURVE.FORWARD($L$2,K33)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K34">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I34">
+      <c r="L34" cm="1">
+        <f t="array" ref="L34">_xll.FI.CURVE.SPOT($L$2,K34)</f>
+        <v>4.0328101530513194E-2</v>
+      </c>
+      <c r="M34" cm="1">
+        <f t="array" ref="M34">_xll.FI.CURVE.FORWARD($L$2,K34)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K35">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I35">
+      <c r="L35" cm="1">
+        <f t="array" ref="L35">_xll.FI.CURVE.SPOT($L$2,K35)</f>
+        <v>4.06350830766554E-2</v>
+      </c>
+      <c r="M35" cm="1">
+        <f t="array" ref="M35">_xll.FI.CURVE.FORWARD($L$2,K35)</f>
+        <v>4.6467732453357329E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K36">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I36">
+      <c r="L36" cm="1">
+        <f t="array" ref="L36">_xll.FI.CURVE.SPOT($L$2,K36)</f>
+        <v>4.1278260592309116E-2</v>
+      </c>
+      <c r="M36" cm="1">
+        <f t="array" ref="M36">_xll.FI.CURVE.FORWARD($L$2,K36)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K37">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I37">
+      <c r="L37" cm="1">
+        <f t="array" ref="L37">_xll.FI.CURVE.SPOT($L$2,K37)</f>
+        <v>4.1862967424721592E-2</v>
+      </c>
+      <c r="M37" cm="1">
+        <f t="array" ref="M37">_xll.FI.CURVE.FORWARD($L$2,K37)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K38">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I38">
+      <c r="L38" cm="1">
+        <f t="array" ref="L38">_xll.FI.CURVE.SPOT($L$2,K38)</f>
+        <v>4.2396830184750371E-2</v>
+      </c>
+      <c r="M38" cm="1">
+        <f t="array" ref="M38">_xll.FI.CURVE.FORWARD($L$2,K38)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K39">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I39">
+      <c r="L39" cm="1">
+        <f t="array" ref="L39">_xll.FI.CURVE.SPOT($L$2,K39)</f>
+        <v>4.2886204381443416E-2</v>
+      </c>
+      <c r="M39" cm="1">
+        <f t="array" ref="M39">_xll.FI.CURVE.FORWARD($L$2,K39)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K40">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I40">
+      <c r="L40" cm="1">
+        <f t="array" ref="L40">_xll.FI.CURVE.SPOT($L$2,K40)</f>
+        <v>4.3336428642401031E-2</v>
+      </c>
+      <c r="M40" cm="1">
+        <f t="array" ref="M40">_xll.FI.CURVE.FORWARD($L$2,K40)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K41">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I41">
+      <c r="L41" cm="1">
+        <f t="array" ref="L41">_xll.FI.CURVE.SPOT($L$2,K41)</f>
+        <v>4.3752020267900343E-2</v>
+      </c>
+      <c r="M41" cm="1">
+        <f t="array" ref="M41">_xll.FI.CURVE.FORWARD($L$2,K41)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K42">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I42">
+      <c r="L42" cm="1">
+        <f t="array" ref="L42">_xll.FI.CURVE.SPOT($L$2,K42)</f>
+        <v>4.413682732854788E-2</v>
+      </c>
+      <c r="M42" cm="1">
+        <f t="array" ref="M42">_xll.FI.CURVE.FORWARD($L$2,K42)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K43">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I43">
+      <c r="L43" cm="1">
+        <f t="array" ref="L43">_xll.FI.CURVE.SPOT($L$2,K43)</f>
+        <v>4.4494148170577723E-2</v>
+      </c>
+      <c r="M43" cm="1">
+        <f t="array" ref="M43">_xll.FI.CURVE.FORWARD($L$2,K43)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K44">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I44">
+      <c r="L44" cm="1">
+        <f t="array" ref="L44">_xll.FI.CURVE.SPOT($L$2,K44)</f>
+        <v>4.4826826195915853E-2</v>
+      </c>
+      <c r="M44" cm="1">
+        <f t="array" ref="M44">_xll.FI.CURVE.FORWARD($L$2,K44)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K45">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I45">
+      <c r="L45" cm="1">
+        <f t="array" ref="L45">_xll.FI.CURVE.SPOT($L$2,K45)</f>
+        <v>4.5137325686231439E-2</v>
+      </c>
+      <c r="M45" cm="1">
+        <f t="array" ref="M45">_xll.FI.CURVE.FORWARD($L$2,K45)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K46">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I46">
+      <c r="L46" cm="1">
+        <f t="array" ref="L46">_xll.FI.CURVE.SPOT($L$2,K46)</f>
+        <v>4.5427792951365377E-2</v>
+      </c>
+      <c r="M46" cm="1">
+        <f t="array" ref="M46">_xll.FI.CURVE.FORWARD($L$2,K46)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K47">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I47">
+      <c r="L47" cm="1">
+        <f t="array" ref="L47">_xll.FI.CURVE.SPOT($L$2,K47)</f>
+        <v>4.5700106012428444E-2</v>
+      </c>
+      <c r="M47" cm="1">
+        <f t="array" ref="M47">_xll.FI.CURVE.FORWARD($L$2,K47)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K48">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I48">
+      <c r="L48" cm="1">
+        <f t="array" ref="L48">_xll.FI.CURVE.SPOT($L$2,K48)</f>
+        <v>4.59559152516089E-2</v>
+      </c>
+      <c r="M48" cm="1">
+        <f t="array" ref="M48">_xll.FI.CURVE.FORWARD($L$2,K48)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K49">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I49">
+      <c r="L49" cm="1">
+        <f t="array" ref="L49">_xll.FI.CURVE.SPOT($L$2,K49)</f>
+        <v>4.6196676888484632E-2</v>
+      </c>
+      <c r="M49" cm="1">
+        <f t="array" ref="M49">_xll.FI.CURVE.FORWARD($L$2,K49)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K50">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I50">
+      <c r="L50" cm="1">
+        <f t="array" ref="L50">_xll.FI.CURVE.SPOT($L$2,K50)</f>
+        <v>4.6423680717538877E-2</v>
+      </c>
+      <c r="M50" cm="1">
+        <f t="array" ref="M50">_xll.FI.CURVE.FORWARD($L$2,K50)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K51">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I51">
+      <c r="L51" cm="1">
+        <f t="array" ref="L51">_xll.FI.CURVE.SPOT($L$2,K51)</f>
+        <v>4.6638073222756787E-2</v>
+      </c>
+      <c r="M51" cm="1">
+        <f t="array" ref="M51">_xll.FI.CURVE.FORWARD($L$2,K51)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K52">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I52">
+      <c r="L52" cm="1">
+        <f t="array" ref="L52">_xll.FI.CURVE.SPOT($L$2,K52)</f>
+        <v>4.6840876943908857E-2</v>
+      </c>
+      <c r="M52" cm="1">
+        <f t="array" ref="M52">_xll.FI.CURVE.FORWARD($L$2,K52)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K53">
         <v>19</v>
       </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I53">
+      <c r="L53" cm="1">
+        <f t="array" ref="L53">_xll.FI.CURVE.SPOT($L$2,K53)</f>
+        <v>4.7033006785000303E-2</v>
+      </c>
+      <c r="M53" cm="1">
+        <f t="array" ref="M53">_xll.FI.CURVE.FORWARD($L$2,K53)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K54">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I54">
+      <c r="L54" cm="1">
+        <f t="array" ref="L54">_xll.FI.CURVE.SPOT($L$2,K54)</f>
+        <v>4.7215283813728075E-2</v>
+      </c>
+      <c r="M54" cm="1">
+        <f t="array" ref="M54">_xll.FI.CURVE.FORWARD($L$2,K54)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K55">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I55">
+      <c r="L55" cm="1">
+        <f t="array" ref="L55">_xll.FI.CURVE.SPOT($L$2,K55)</f>
+        <v>4.7388446991019462E-2</v>
+      </c>
+      <c r="M55" cm="1">
+        <f t="array" ref="M55">_xll.FI.CURVE.FORWARD($L$2,K55)</f>
+        <v>5.4141810905383524E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K56">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I56">
+      <c r="L56" cm="1">
+        <f t="array" ref="L56">_xll.FI.CURVE.SPOT($L$2,K56)</f>
+        <v>4.7416517109592764E-2</v>
+      </c>
+      <c r="M56" cm="1">
+        <f t="array" ref="M56">_xll.FI.CURVE.FORWARD($L$2,K56)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K57">
         <v>21</v>
       </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I57">
+      <c r="L57" cm="1">
+        <f t="array" ref="L57">_xll.FI.CURVE.SPOT($L$2,K57)</f>
+        <v>4.744325055585305E-2</v>
+      </c>
+      <c r="M57" cm="1">
+        <f t="array" ref="M57">_xll.FI.CURVE.FORWARD($L$2,K57)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K58">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I58">
+      <c r="L58" cm="1">
+        <f t="array" ref="L58">_xll.FI.CURVE.SPOT($L$2,K58)</f>
+        <v>4.746874058600821E-2</v>
+      </c>
+      <c r="M58" cm="1">
+        <f t="array" ref="M58">_xll.FI.CURVE.FORWARD($L$2,K58)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K59">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I59">
+      <c r="L59" cm="1">
+        <f t="array" ref="L59">_xll.FI.CURVE.SPOT($L$2,K59)</f>
+        <v>4.7493071978429044E-2</v>
+      </c>
+      <c r="M59" cm="1">
+        <f t="array" ref="M59">_xll.FI.CURVE.FORWARD($L$2,K59)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K60">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I60">
+      <c r="L60" cm="1">
+        <f t="array" ref="L60">_xll.FI.CURVE.SPOT($L$2,K60)</f>
+        <v>4.7516321975631173E-2</v>
+      </c>
+      <c r="M60" cm="1">
+        <f t="array" ref="M60">_xll.FI.CURVE.FORWARD($L$2,K60)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K61">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I61">
+      <c r="L61" cm="1">
+        <f t="array" ref="L61">_xll.FI.CURVE.SPOT($L$2,K61)</f>
+        <v>4.7538561103389727E-2</v>
+      </c>
+      <c r="M61" cm="1">
+        <f t="array" ref="M61">_xll.FI.CURVE.FORWARD($L$2,K61)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K62">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I62">
+      <c r="L62" cm="1">
+        <f t="array" ref="L62">_xll.FI.CURVE.SPOT($L$2,K62)</f>
+        <v>4.7559853885286218E-2</v>
+      </c>
+      <c r="M62" cm="1">
+        <f t="array" ref="M62">_xll.FI.CURVE.FORWARD($L$2,K62)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K63">
         <v>24</v>
       </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I63">
+      <c r="L63" cm="1">
+        <f t="array" ref="L63">_xll.FI.CURVE.SPOT($L$2,K63)</f>
+        <v>4.7580259467937029E-2</v>
+      </c>
+      <c r="M63" cm="1">
+        <f t="array" ref="M63">_xll.FI.CURVE.FORWARD($L$2,K63)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K64">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I64">
+      <c r="L64" cm="1">
+        <f t="array" ref="L64">_xll.FI.CURVE.SPOT($L$2,K64)</f>
+        <v>4.7599832169663313E-2</v>
+      </c>
+      <c r="M64" cm="1">
+        <f t="array" ref="M64">_xll.FI.CURVE.FORWARD($L$2,K64)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K65">
         <v>25</v>
       </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I65">
+      <c r="L65" cm="1">
+        <f t="array" ref="L65">_xll.FI.CURVE.SPOT($L$2,K65)</f>
+        <v>4.7618621963320534E-2</v>
+      </c>
+      <c r="M65" cm="1">
+        <f t="array" ref="M65">_xll.FI.CURVE.FORWARD($L$2,K65)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K66">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I66">
+      <c r="L66" cm="1">
+        <f t="array" ref="L66">_xll.FI.CURVE.SPOT($L$2,K66)</f>
+        <v>4.7636674902324545E-2</v>
+      </c>
+      <c r="M66" cm="1">
+        <f t="array" ref="M66">_xll.FI.CURVE.FORWARD($L$2,K66)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K67">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I67">
+      <c r="L67" cm="1">
+        <f t="array" ref="L67">_xll.FI.CURVE.SPOT($L$2,K67)</f>
+        <v>4.7654033497520704E-2</v>
+      </c>
+      <c r="M67" cm="1">
+        <f t="array" ref="M67">_xll.FI.CURVE.FORWARD($L$2,K67)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K68">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I68">
+      <c r="L68" cm="1">
+        <f t="array" ref="L68">_xll.FI.CURVE.SPOT($L$2,K68)</f>
+        <v>4.767073705138871E-2</v>
+      </c>
+      <c r="M68" cm="1">
+        <f t="array" ref="M68">_xll.FI.CURVE.FORWARD($L$2,K68)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K69">
         <v>27</v>
       </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I69">
+      <c r="L69" cm="1">
+        <f t="array" ref="L69">_xll.FI.CURVE.SPOT($L$2,K69)</f>
+        <v>4.7686821955113451E-2</v>
+      </c>
+      <c r="M69" cm="1">
+        <f t="array" ref="M69">_xll.FI.CURVE.FORWARD($L$2,K69)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K70">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I70">
+      <c r="L70" cm="1">
+        <f t="array" ref="L70">_xll.FI.CURVE.SPOT($L$2,K70)</f>
+        <v>4.7702321953248202E-2</v>
+      </c>
+      <c r="M70" cm="1">
+        <f t="array" ref="M70">_xll.FI.CURVE.FORWARD($L$2,K70)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K71">
         <v>28</v>
       </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I71">
+      <c r="L71" cm="1">
+        <f t="array" ref="L71">_xll.FI.CURVE.SPOT($L$2,K71)</f>
+        <v>4.7717268380021001E-2</v>
+      </c>
+      <c r="M71" cm="1">
+        <f t="array" ref="M71">_xll.FI.CURVE.FORWARD($L$2,K71)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K72">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I72">
+      <c r="L72" cm="1">
+        <f t="array" ref="L72">_xll.FI.CURVE.SPOT($L$2,K72)</f>
+        <v>4.7731690370766675E-2</v>
+      </c>
+      <c r="M72" cm="1">
+        <f t="array" ref="M72">_xll.FI.CURVE.FORWARD($L$2,K72)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K73">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I73">
+      <c r="L73" cm="1">
+        <f t="array" ref="L73">_xll.FI.CURVE.SPOT($L$2,K73)</f>
+        <v>4.7745615051486646E-2</v>
+      </c>
+      <c r="M73" cm="1">
+        <f t="array" ref="M73">_xll.FI.CURVE.FORWARD($L$2,K73)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K74">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I74">
+      <c r="L74" cm="1">
+        <f t="array" ref="L74">_xll.FI.CURVE.SPOT($L$2,K74)</f>
+        <v>4.7759067709131367E-2</v>
+      </c>
+      <c r="M74" cm="1">
+        <f t="array" ref="M74">_xll.FI.CURVE.FORWARD($L$2,K74)</f>
+        <v>4.8539321852524846E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="11:13" x14ac:dyDescent="0.35">
+      <c r="K75">
         <v>30</v>
+      </c>
+      <c r="L75" cm="1">
+        <f t="array" ref="L75">_xll.FI.CURVE.SPOT($L$2,K75)</f>
+        <v>4.777207194485459E-2</v>
+      </c>
+      <c r="M75" cm="1">
+        <f t="array" ref="M75">_xll.FI.CURVE.FORWARD($L$2,K75)</f>
+        <v>4.8539321852524846E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3228,6 +6453,7 @@
   <ignoredErrors>
     <ignoredError sqref="C4" formula="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>